--- a/data sets/swiss_franc.xlsx
+++ b/data sets/swiss_franc.xlsx
@@ -33,9 +33,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -46,7 +47,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +62,11 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -71,39 +77,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="true" applyFill="true">
+  <cellStyleXfs count="9">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyFill="true" applyNumberFormat="true" borderId="0" fillId="3" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyFill="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyFill="true"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+  <cellXfs count="9">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="6"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="8"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
     <cellStyle name="XLConnect.Header" xfId="1"/>
     <cellStyle name="XLConnect.String" xfId="2"/>
     <cellStyle name="XLConnect.Numeric" xfId="3"/>
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
     <cellStyle name="XLConnect.DateTime" xfId="5"/>
+    <cellStyle name="Header" xfId="6"/>
+    <cellStyle name="Date" xfId="7"/>
+    <cellStyle name="HighLight" xfId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -112,5901 +127,5904 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E421"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.9375" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="0">
+      <c r="A2" s="7" t="n">
         <v>41640.083333333336</v>
       </c>
-      <c r="B2" t="n" s="0">
+      <c r="B2" s="0" t="n">
         <v>0.8157</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="C2" s="0" t="n">
         <v>1.1245</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="D2" s="0" t="n">
         <v>0.6807</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="0">
+      <c r="A3" s="7" t="n">
         <v>41641.083333333336</v>
       </c>
-      <c r="B3" t="n" s="0">
+      <c r="B3" s="0" t="n">
         <v>0.8159</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="C3" s="0" t="n">
         <v>1.125</v>
       </c>
-      <c r="D3" t="n" s="0">
+      <c r="D3" s="0" t="n">
         <v>0.6791</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="0">
+      <c r="A4" s="7" t="n">
         <v>41642.083333333336</v>
       </c>
-      <c r="B4" t="n" s="0">
+      <c r="B4" s="0" t="n">
         <v>0.8137</v>
       </c>
-      <c r="C4" t="n" s="0">
+      <c r="C4" s="0" t="n">
         <v>1.116</v>
       </c>
-      <c r="D4" t="n" s="0">
+      <c r="D4" s="0" t="n">
         <v>0.6752</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="0">
+      <c r="A5" s="7" t="n">
         <v>41643.083333333336</v>
       </c>
-      <c r="B5" t="n" s="0">
+      <c r="B5" s="0" t="n">
         <v>0.8133</v>
       </c>
-      <c r="C5" t="n" s="0">
+      <c r="C5" s="0" t="n">
         <v>1.1093</v>
       </c>
-      <c r="D5" t="n" s="0">
+      <c r="D5" s="0" t="n">
         <v>0.6748</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="0">
+      <c r="A6" s="7" t="n">
         <v>41644.083333333336</v>
       </c>
-      <c r="B6" t="n" s="0">
+      <c r="B6" s="0" t="n">
         <v>0.8126</v>
       </c>
-      <c r="C6" t="n" s="0">
+      <c r="C6" s="0" t="n">
         <v>1.1039</v>
       </c>
-      <c r="D6" t="n" s="0">
+      <c r="D6" s="0" t="n">
         <v>0.6725</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="0">
+      <c r="A7" s="7" t="n">
         <v>41645.083333333336</v>
       </c>
-      <c r="B7" t="n" s="0">
+      <c r="B7" s="0" t="n">
         <v>0.8126</v>
       </c>
-      <c r="C7" t="n" s="0">
+      <c r="C7" s="0" t="n">
         <v>1.1038</v>
       </c>
-      <c r="D7" t="n" s="0">
+      <c r="D7" s="0" t="n">
         <v>0.6724</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="0">
+      <c r="A8" s="7" t="n">
         <v>41646.083333333336</v>
       </c>
-      <c r="B8" t="n" s="0">
+      <c r="B8" s="0" t="n">
         <v>0.8122</v>
       </c>
-      <c r="C8" t="n" s="0">
+      <c r="C8" s="0" t="n">
         <v>1.1049</v>
       </c>
-      <c r="D8" t="n" s="0">
+      <c r="D8" s="0" t="n">
         <v>0.6742</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="0">
+      <c r="A9" s="7" t="n">
         <v>41647.083333333336</v>
       </c>
-      <c r="B9" t="n" s="0">
+      <c r="B9" s="0" t="n">
         <v>0.8097</v>
       </c>
-      <c r="C9" t="n" s="0">
+      <c r="C9" s="0" t="n">
         <v>1.1032</v>
       </c>
-      <c r="D9" t="n" s="0">
+      <c r="D9" s="0" t="n">
         <v>0.6725</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n" s="0">
+      <c r="A10" s="7" t="n">
         <v>41648.083333333336</v>
       </c>
-      <c r="B10" t="n" s="0">
+      <c r="B10" s="0" t="n">
         <v>0.808</v>
       </c>
-      <c r="C10" t="n" s="0">
+      <c r="C10" s="0" t="n">
         <v>1.0991</v>
       </c>
-      <c r="D10" t="n" s="0">
+      <c r="D10" s="0" t="n">
         <v>0.6693</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n" s="0">
+      <c r="A11" s="7" t="n">
         <v>41649.083333333336</v>
       </c>
-      <c r="B11" t="n" s="0">
+      <c r="B11" s="0" t="n">
         <v>0.8085</v>
       </c>
-      <c r="C11" t="n" s="0">
+      <c r="C11" s="0" t="n">
         <v>1.0986</v>
       </c>
-      <c r="D11" t="n" s="0">
+      <c r="D11" s="0" t="n">
         <v>0.6675</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="0">
+      <c r="A12" s="7" t="n">
         <v>41650.083333333336</v>
       </c>
-      <c r="B12" t="n" s="0">
+      <c r="B12" s="0" t="n">
         <v>0.8103</v>
       </c>
-      <c r="C12" t="n" s="0">
+      <c r="C12" s="0" t="n">
         <v>1.1039</v>
       </c>
-      <c r="D12" t="n" s="0">
+      <c r="D12" s="0" t="n">
         <v>0.6704</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n" s="0">
+      <c r="A13" s="7" t="n">
         <v>41651.083333333336</v>
       </c>
-      <c r="B13" t="n" s="0">
+      <c r="B13" s="0" t="n">
         <v>0.8105</v>
       </c>
-      <c r="C13" t="n" s="0">
+      <c r="C13" s="0" t="n">
         <v>1.1076</v>
       </c>
-      <c r="D13" t="n" s="0">
+      <c r="D13" s="0" t="n">
         <v>0.6719</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n" s="0">
+      <c r="A14" s="7" t="n">
         <v>41652.083333333336</v>
       </c>
-      <c r="B14" t="n" s="0">
+      <c r="B14" s="0" t="n">
         <v>0.8105</v>
       </c>
-      <c r="C14" t="n" s="0">
+      <c r="C14" s="0" t="n">
         <v>1.1076</v>
       </c>
-      <c r="D14" t="n" s="0">
+      <c r="D14" s="0" t="n">
         <v>0.6719</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="0">
+      <c r="A15" s="7" t="n">
         <v>41653.083333333336</v>
       </c>
-      <c r="B15" t="n" s="0">
+      <c r="B15" s="0" t="n">
         <v>0.8112</v>
       </c>
-      <c r="C15" t="n" s="0">
+      <c r="C15" s="0" t="n">
         <v>1.1085</v>
       </c>
-      <c r="D15" t="n" s="0">
+      <c r="D15" s="0" t="n">
         <v>0.6741</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n" s="0">
+      <c r="A16" s="7" t="n">
         <v>41654.083333333336</v>
       </c>
-      <c r="B16" t="n" s="0">
+      <c r="B16" s="0" t="n">
         <v>0.8118</v>
       </c>
-      <c r="C16" t="n" s="0">
+      <c r="C16" s="0" t="n">
         <v>1.1099</v>
       </c>
-      <c r="D16" t="n" s="0">
+      <c r="D16" s="0" t="n">
         <v>0.6762</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n" s="0">
+      <c r="A17" s="7" t="n">
         <v>41655.083333333336</v>
       </c>
-      <c r="B17" t="n" s="0">
+      <c r="B17" s="0" t="n">
         <v>0.8093</v>
       </c>
-      <c r="C17" t="n" s="0">
+      <c r="C17" s="0" t="n">
         <v>1.1029</v>
       </c>
-      <c r="D17" t="n" s="0">
+      <c r="D17" s="0" t="n">
         <v>0.6724</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n" s="0">
+      <c r="A18" s="7" t="n">
         <v>41656.083333333336</v>
       </c>
-      <c r="B18" t="n" s="0">
+      <c r="B18" s="0" t="n">
         <v>0.8095</v>
       </c>
-      <c r="C18" t="n" s="0">
+      <c r="C18" s="0" t="n">
         <v>1.1018</v>
       </c>
-      <c r="D18" t="n" s="0">
+      <c r="D18" s="0" t="n">
         <v>0.6737</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n" s="0">
+      <c r="A19" s="7" t="n">
         <v>41657.083333333336</v>
       </c>
-      <c r="B19" t="n" s="0">
+      <c r="B19" s="0" t="n">
         <v>0.8112</v>
       </c>
-      <c r="C19" t="n" s="0">
+      <c r="C19" s="0" t="n">
         <v>1.1024</v>
       </c>
-      <c r="D19" t="n" s="0">
+      <c r="D19" s="0" t="n">
         <v>0.6728</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n" s="0">
+      <c r="A20" s="7" t="n">
         <v>41658.083333333336</v>
       </c>
-      <c r="B20" t="n" s="0">
+      <c r="B20" s="0" t="n">
         <v>0.811</v>
       </c>
-      <c r="C20" t="n" s="0">
+      <c r="C20" s="0" t="n">
         <v>1.098</v>
       </c>
-      <c r="D20" t="n" s="0">
+      <c r="D20" s="0" t="n">
         <v>0.6685</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n" s="0">
+      <c r="A21" s="7" t="n">
         <v>41659.083333333336</v>
       </c>
-      <c r="B21" t="n" s="0">
+      <c r="B21" s="0" t="n">
         <v>0.811</v>
       </c>
-      <c r="C21" t="n" s="0">
+      <c r="C21" s="0" t="n">
         <v>1.098</v>
       </c>
-      <c r="D21" t="n" s="0">
+      <c r="D21" s="0" t="n">
         <v>0.6685</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n" s="0">
+      <c r="A22" s="7" t="n">
         <v>41660.083333333336</v>
       </c>
-      <c r="B22" t="n" s="0">
+      <c r="B22" s="0" t="n">
         <v>0.8107</v>
       </c>
-      <c r="C22" t="n" s="0">
+      <c r="C22" s="0" t="n">
         <v>1.0982</v>
       </c>
-      <c r="D22" t="n" s="0">
+      <c r="D22" s="0" t="n">
         <v>0.6686</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n" s="0">
+      <c r="A23" s="7" t="n">
         <v>41661.083333333336</v>
       </c>
-      <c r="B23" t="n" s="0">
+      <c r="B23" s="0" t="n">
         <v>0.8097</v>
       </c>
-      <c r="C23" t="n" s="0">
+      <c r="C23" s="0" t="n">
         <v>1.0967</v>
       </c>
-      <c r="D23" t="n" s="0">
+      <c r="D23" s="0" t="n">
         <v>0.6671</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n" s="0">
+      <c r="A24" s="7" t="n">
         <v>41662.083333333336</v>
       </c>
-      <c r="B24" t="n" s="0">
+      <c r="B24" s="0" t="n">
         <v>0.8099</v>
       </c>
-      <c r="C24" t="n" s="0">
+      <c r="C24" s="0" t="n">
         <v>1.098</v>
       </c>
-      <c r="D24" t="n" s="0">
+      <c r="D24" s="0" t="n">
         <v>0.6647</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n" s="0">
+      <c r="A25" s="7" t="n">
         <v>41663.083333333336</v>
       </c>
-      <c r="B25" t="n" s="0">
+      <c r="B25" s="0" t="n">
         <v>0.811</v>
       </c>
-      <c r="C25" t="n" s="0">
+      <c r="C25" s="0" t="n">
         <v>1.1035</v>
       </c>
-      <c r="D25" t="n" s="0">
+      <c r="D25" s="0" t="n">
         <v>0.6652</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n" s="0">
+      <c r="A26" s="7" t="n">
         <v>41664.083333333336</v>
       </c>
-      <c r="B26" t="n" s="0">
+      <c r="B26" s="0" t="n">
         <v>0.8149</v>
       </c>
-      <c r="C26" t="n" s="0">
+      <c r="C26" s="0" t="n">
         <v>1.1153</v>
       </c>
-      <c r="D26" t="n" s="0">
+      <c r="D26" s="0" t="n">
         <v>0.6725</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n" s="0">
+      <c r="A27" s="7" t="n">
         <v>41665.083333333336</v>
       </c>
-      <c r="B27" t="n" s="0">
+      <c r="B27" s="0" t="n">
         <v>0.8168</v>
       </c>
-      <c r="C27" t="n" s="0">
+      <c r="C27" s="0" t="n">
         <v>1.1171</v>
       </c>
-      <c r="D27" t="n" s="0">
+      <c r="D27" s="0" t="n">
         <v>0.6778</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n" s="0">
+      <c r="A28" s="7" t="n">
         <v>41666.083333333336</v>
       </c>
-      <c r="B28" t="n" s="0">
+      <c r="B28" s="0" t="n">
         <v>0.8168</v>
       </c>
-      <c r="C28" t="n" s="0">
+      <c r="C28" s="0" t="n">
         <v>1.117</v>
       </c>
-      <c r="D28" t="n" s="0">
+      <c r="D28" s="0" t="n">
         <v>0.6779</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n" s="0">
+      <c r="A29" s="7" t="n">
         <v>41667.083333333336</v>
       </c>
-      <c r="B29" t="n" s="0">
+      <c r="B29" s="0" t="n">
         <v>0.8162</v>
       </c>
-      <c r="C29" t="n" s="0">
+      <c r="C29" s="0" t="n">
         <v>1.1165</v>
       </c>
-      <c r="D29" t="n" s="0">
+      <c r="D29" s="0" t="n">
         <v>0.6754</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n" s="0">
+      <c r="A30" s="7" t="n">
         <v>41668.083333333336</v>
       </c>
-      <c r="B30" t="n" s="0">
+      <c r="B30" s="0" t="n">
         <v>0.8151</v>
       </c>
-      <c r="C30" t="n" s="0">
+      <c r="C30" s="0" t="n">
         <v>1.1139</v>
       </c>
-      <c r="D30" t="n" s="0">
+      <c r="D30" s="0" t="n">
         <v>0.6716</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n" s="0">
+      <c r="A31" s="7" t="n">
         <v>41669.083333333336</v>
       </c>
-      <c r="B31" t="n" s="0">
+      <c r="B31" s="0" t="n">
         <v>0.8153</v>
       </c>
-      <c r="C31" t="n" s="0">
+      <c r="C31" s="0" t="n">
         <v>1.1136</v>
       </c>
-      <c r="D31" t="n" s="0">
+      <c r="D31" s="0" t="n">
         <v>0.672</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n" s="0">
+      <c r="A32" s="7" t="n">
         <v>41670.083333333336</v>
       </c>
-      <c r="B32" t="n" s="0">
+      <c r="B32" s="0" t="n">
         <v>0.8173</v>
       </c>
-      <c r="C32" t="n" s="0">
+      <c r="C32" s="0" t="n">
         <v>1.1125</v>
       </c>
-      <c r="D32" t="n" s="0">
+      <c r="D32" s="0" t="n">
         <v>0.6735</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n" s="0">
+      <c r="A33" s="7" t="n">
         <v>41671.083333333336</v>
       </c>
-      <c r="B33" t="n" s="0">
+      <c r="B33" s="0" t="n">
         <v>0.8176</v>
       </c>
-      <c r="C33" t="n" s="0">
+      <c r="C33" s="0" t="n">
         <v>1.1064</v>
       </c>
-      <c r="D33" t="n" s="0">
+      <c r="D33" s="0" t="n">
         <v>0.6718</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n" s="0">
+      <c r="A34" s="7" t="n">
         <v>41672.083333333336</v>
       </c>
-      <c r="B34" t="n" s="0">
+      <c r="B34" s="0" t="n">
         <v>0.8177</v>
       </c>
-      <c r="C34" t="n" s="0">
+      <c r="C34" s="0" t="n">
         <v>1.1027</v>
       </c>
-      <c r="D34" t="n" s="0">
+      <c r="D34" s="0" t="n">
         <v>0.6707</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="0">
+      <c r="A35" s="7" t="n">
         <v>41673.083333333336</v>
       </c>
-      <c r="B35" t="n" s="0">
+      <c r="B35" s="0" t="n">
         <v>0.8177</v>
       </c>
-      <c r="C35" t="n" s="0">
+      <c r="C35" s="0" t="n">
         <v>1.1027</v>
       </c>
-      <c r="D35" t="n" s="0">
+      <c r="D35" s="0" t="n">
         <v>0.6707</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="0">
+      <c r="A36" s="7" t="n">
         <v>41674.083333333336</v>
       </c>
-      <c r="B36" t="n" s="0">
+      <c r="B36" s="0" t="n">
         <v>0.8184</v>
       </c>
-      <c r="C36" t="n" s="0">
+      <c r="C36" s="0" t="n">
         <v>1.1048</v>
       </c>
-      <c r="D36" t="n" s="0">
+      <c r="D36" s="0" t="n">
         <v>0.6745</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="0">
+      <c r="A37" s="7" t="n">
         <v>41675.083333333336</v>
       </c>
-      <c r="B37" t="n" s="0">
+      <c r="B37" s="0" t="n">
         <v>0.819</v>
       </c>
-      <c r="C37" t="n" s="0">
+      <c r="C37" s="0" t="n">
         <v>1.107</v>
       </c>
-      <c r="D37" t="n" s="0">
+      <c r="D37" s="0" t="n">
         <v>0.6788</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="0">
+      <c r="A38" s="7" t="n">
         <v>41676.083333333336</v>
       </c>
-      <c r="B38" t="n" s="0">
+      <c r="B38" s="0" t="n">
         <v>0.8182</v>
       </c>
-      <c r="C38" t="n" s="0">
+      <c r="C38" s="0" t="n">
         <v>1.1062</v>
       </c>
-      <c r="D38" t="n" s="0">
+      <c r="D38" s="0" t="n">
         <v>0.6781</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="0">
+      <c r="A39" s="7" t="n">
         <v>41677.083333333336</v>
       </c>
-      <c r="B39" t="n" s="0">
+      <c r="B39" s="0" t="n">
         <v>0.8175</v>
       </c>
-      <c r="C39" t="n" s="0">
+      <c r="C39" s="0" t="n">
         <v>1.1076</v>
       </c>
-      <c r="D39" t="n" s="0">
+      <c r="D39" s="0" t="n">
         <v>0.679</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="0">
+      <c r="A40" s="7" t="n">
         <v>41678.083333333336</v>
       </c>
-      <c r="B40" t="n" s="0">
+      <c r="B40" s="0" t="n">
         <v>0.817</v>
       </c>
-      <c r="C40" t="n" s="0">
+      <c r="C40" s="0" t="n">
         <v>1.1105</v>
       </c>
-      <c r="D40" t="n" s="0">
+      <c r="D40" s="0" t="n">
         <v>0.6792</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="0">
+      <c r="A41" s="7" t="n">
         <v>41679.083333333336</v>
       </c>
-      <c r="B41" t="n" s="0">
+      <c r="B41" s="0" t="n">
         <v>0.8164</v>
       </c>
-      <c r="C41" t="n" s="0">
+      <c r="C41" s="0" t="n">
         <v>1.1129</v>
       </c>
-      <c r="D41" t="n" s="0">
+      <c r="D41" s="0" t="n">
         <v>0.6782</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="0">
+      <c r="A42" s="7" t="n">
         <v>41680.083333333336</v>
       </c>
-      <c r="B42" t="n" s="0">
+      <c r="B42" s="0" t="n">
         <v>0.8164</v>
       </c>
-      <c r="C42" t="n" s="0">
+      <c r="C42" s="0" t="n">
         <v>1.1129</v>
       </c>
-      <c r="D42" t="n" s="0">
+      <c r="D42" s="0" t="n">
         <v>0.6782</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="0">
+      <c r="A43" s="7" t="n">
         <v>41681.083333333336</v>
       </c>
-      <c r="B43" t="n" s="0">
+      <c r="B43" s="0" t="n">
         <v>0.817</v>
       </c>
-      <c r="C43" t="n" s="0">
+      <c r="C43" s="0" t="n">
         <v>1.1137</v>
       </c>
-      <c r="D43" t="n" s="0">
+      <c r="D43" s="0" t="n">
         <v>0.6789</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n" s="0">
+      <c r="A44" s="7" t="n">
         <v>41682.083333333336</v>
       </c>
-      <c r="B44" t="n" s="0">
+      <c r="B44" s="0" t="n">
         <v>0.8169</v>
       </c>
-      <c r="C44" t="n" s="0">
+      <c r="C44" s="0" t="n">
         <v>1.1158</v>
       </c>
-      <c r="D44" t="n" s="0">
+      <c r="D44" s="0" t="n">
         <v>0.6791</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n" s="0">
+      <c r="A45" s="7" t="n">
         <v>41683.083333333336</v>
       </c>
-      <c r="B45" t="n" s="0">
+      <c r="B45" s="0" t="n">
         <v>0.8165</v>
       </c>
-      <c r="C45" t="n" s="0">
+      <c r="C45" s="0" t="n">
         <v>1.1117</v>
       </c>
-      <c r="D45" t="n" s="0">
+      <c r="D45" s="0" t="n">
         <v>0.6737</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n" s="0">
+      <c r="A46" s="7" t="n">
         <v>41684.083333333336</v>
       </c>
-      <c r="B46" t="n" s="0">
+      <c r="B46" s="0" t="n">
         <v>0.8179</v>
       </c>
-      <c r="C46" t="n" s="0">
+      <c r="C46" s="0" t="n">
         <v>1.1155</v>
       </c>
-      <c r="D46" t="n" s="0">
+      <c r="D46" s="0" t="n">
         <v>0.6708</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n" s="0">
+      <c r="A47" s="7" t="n">
         <v>41685.083333333336</v>
       </c>
-      <c r="B47" t="n" s="0">
+      <c r="B47" s="0" t="n">
         <v>0.8183</v>
       </c>
-      <c r="C47" t="n" s="0">
+      <c r="C47" s="0" t="n">
         <v>1.1202</v>
       </c>
-      <c r="D47" t="n" s="0">
+      <c r="D47" s="0" t="n">
         <v>0.6712</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n" s="0">
+      <c r="A48" s="7" t="n">
         <v>41686.083333333336</v>
       </c>
-      <c r="B48" t="n" s="0">
+      <c r="B48" s="0" t="n">
         <v>0.8178</v>
       </c>
-      <c r="C48" t="n" s="0">
+      <c r="C48" s="0" t="n">
         <v>1.1198</v>
       </c>
-      <c r="D48" t="n" s="0">
+      <c r="D48" s="0" t="n">
         <v>0.6687</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n" s="0">
+      <c r="A49" s="7" t="n">
         <v>41687.083333333336</v>
       </c>
-      <c r="B49" t="n" s="0">
+      <c r="B49" s="0" t="n">
         <v>0.8178</v>
       </c>
-      <c r="C49" t="n" s="0">
+      <c r="C49" s="0" t="n">
         <v>1.1197</v>
       </c>
-      <c r="D49" t="n" s="0">
+      <c r="D49" s="0" t="n">
         <v>0.6687</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n" s="0">
+      <c r="A50" s="7" t="n">
         <v>41688.083333333336</v>
       </c>
-      <c r="B50" t="n" s="0">
+      <c r="B50" s="0" t="n">
         <v>0.8183</v>
       </c>
-      <c r="C50" t="n" s="0">
+      <c r="C50" s="0" t="n">
         <v>1.1215</v>
       </c>
-      <c r="D50" t="n" s="0">
+      <c r="D50" s="0" t="n">
         <v>0.6696</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n" s="0">
+      <c r="A51" s="7" t="n">
         <v>41689.083333333336</v>
       </c>
-      <c r="B51" t="n" s="0">
+      <c r="B51" s="0" t="n">
         <v>0.818</v>
       </c>
-      <c r="C51" t="n" s="0">
+      <c r="C51" s="0" t="n">
         <v>1.1228</v>
       </c>
-      <c r="D51" t="n" s="0">
+      <c r="D51" s="0" t="n">
         <v>0.6721</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n" s="0">
+      <c r="A52" s="7" t="n">
         <v>41690.083333333336</v>
       </c>
-      <c r="B52" t="n" s="0">
+      <c r="B52" s="0" t="n">
         <v>0.8187</v>
       </c>
-      <c r="C52" t="n" s="0">
+      <c r="C52" s="0" t="n">
         <v>1.1262</v>
       </c>
-      <c r="D52" t="n" s="0">
+      <c r="D52" s="0" t="n">
         <v>0.6748</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n" s="0">
+      <c r="A53" s="7" t="n">
         <v>41691.083333333336</v>
       </c>
-      <c r="B53" t="n" s="0">
+      <c r="B53" s="0" t="n">
         <v>0.8195</v>
       </c>
-      <c r="C53" t="n" s="0">
+      <c r="C53" s="0" t="n">
         <v>1.1247</v>
       </c>
-      <c r="D53" t="n" s="0">
+      <c r="D53" s="0" t="n">
         <v>0.6748</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n" s="0">
+      <c r="A54" s="7" t="n">
         <v>41692.083333333336</v>
       </c>
-      <c r="B54" t="n" s="0">
+      <c r="B54" s="0" t="n">
         <v>0.8196</v>
       </c>
-      <c r="C54" t="n" s="0">
+      <c r="C54" s="0" t="n">
         <v>1.1246</v>
       </c>
-      <c r="D54" t="n" s="0">
+      <c r="D54" s="0" t="n">
         <v>0.6751</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n" s="0">
+      <c r="A55" s="7" t="n">
         <v>41693.083333333336</v>
       </c>
-      <c r="B55" t="n" s="0">
+      <c r="B55" s="0" t="n">
         <v>0.8194</v>
       </c>
-      <c r="C55" t="n" s="0">
+      <c r="C55" s="0" t="n">
         <v>1.1256</v>
       </c>
-      <c r="D55" t="n" s="0">
+      <c r="D55" s="0" t="n">
         <v>0.6775</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n" s="0">
+      <c r="A56" s="7" t="n">
         <v>41694.083333333336</v>
       </c>
-      <c r="B56" t="n" s="0">
+      <c r="B56" s="0" t="n">
         <v>0.8194</v>
       </c>
-      <c r="C56" t="n" s="0">
+      <c r="C56" s="0" t="n">
         <v>1.1256</v>
       </c>
-      <c r="D56" t="n" s="0">
+      <c r="D56" s="0" t="n">
         <v>0.6775</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n" s="0">
+      <c r="A57" s="7" t="n">
         <v>41695.083333333336</v>
       </c>
-      <c r="B57" t="n" s="0">
+      <c r="B57" s="0" t="n">
         <v>0.8196</v>
       </c>
-      <c r="C57" t="n" s="0">
+      <c r="C57" s="0" t="n">
         <v>1.126</v>
       </c>
-      <c r="D57" t="n" s="0">
+      <c r="D57" s="0" t="n">
         <v>0.6767</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n" s="0">
+      <c r="A58" s="7" t="n">
         <v>41696.083333333336</v>
       </c>
-      <c r="B58" t="n" s="0">
+      <c r="B58" s="0" t="n">
         <v>0.8196</v>
       </c>
-      <c r="C58" t="n" s="0">
+      <c r="C58" s="0" t="n">
         <v>1.1263</v>
       </c>
-      <c r="D58" t="n" s="0">
+      <c r="D58" s="0" t="n">
         <v>0.6754</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n" s="0">
+      <c r="A59" s="7" t="n">
         <v>41697.083333333336</v>
       </c>
-      <c r="B59" t="n" s="0">
+      <c r="B59" s="0" t="n">
         <v>0.8199</v>
       </c>
-      <c r="C59" t="n" s="0">
+      <c r="C59" s="0" t="n">
         <v>1.1251</v>
       </c>
-      <c r="D59" t="n" s="0">
+      <c r="D59" s="0" t="n">
         <v>0.6749</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n" s="0">
+      <c r="A60" s="7" t="n">
         <v>41698.083333333336</v>
       </c>
-      <c r="B60" t="n" s="0">
+      <c r="B60" s="0" t="n">
         <v>0.8211</v>
       </c>
-      <c r="C60" t="n" s="0">
+      <c r="C60" s="0" t="n">
         <v>1.1235</v>
       </c>
-      <c r="D60" t="n" s="0">
+      <c r="D60" s="0" t="n">
         <v>0.6742</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n" s="0">
+      <c r="A61" s="7" t="n">
         <v>41699.083333333336</v>
       </c>
-      <c r="B61" t="n" s="0">
+      <c r="B61" s="0" t="n">
         <v>0.8218</v>
       </c>
-      <c r="C61" t="n" s="0">
+      <c r="C61" s="0" t="n">
         <v>1.1302</v>
       </c>
-      <c r="D61" t="n" s="0">
+      <c r="D61" s="0" t="n">
         <v>0.6763</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n" s="0">
+      <c r="A62" s="7" t="n">
         <v>41700.083333333336</v>
       </c>
-      <c r="B62" t="n" s="0">
+      <c r="B62" s="0" t="n">
         <v>0.823</v>
       </c>
-      <c r="C62" t="n" s="0">
+      <c r="C62" s="0" t="n">
         <v>1.135</v>
       </c>
-      <c r="D62" t="n" s="0">
+      <c r="D62" s="0" t="n">
         <v>0.6782</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n" s="0">
+      <c r="A63" s="7" t="n">
         <v>41701.083333333336</v>
       </c>
-      <c r="B63" t="n" s="0">
+      <c r="B63" s="0" t="n">
         <v>0.823</v>
       </c>
-      <c r="C63" t="n" s="0">
+      <c r="C63" s="0" t="n">
         <v>1.1349</v>
       </c>
-      <c r="D63" t="n" s="0">
+      <c r="D63" s="0" t="n">
         <v>0.6781</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n" s="0">
+      <c r="A64" s="7" t="n">
         <v>41702.083333333336</v>
       </c>
-      <c r="B64" t="n" s="0">
+      <c r="B64" s="0" t="n">
         <v>0.8246</v>
       </c>
-      <c r="C64" t="n" s="0">
+      <c r="C64" s="0" t="n">
         <v>1.1355</v>
       </c>
-      <c r="D64" t="n" s="0">
+      <c r="D64" s="0" t="n">
         <v>0.679</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n" s="0">
+      <c r="A65" s="7" t="n">
         <v>41703.083333333336</v>
       </c>
-      <c r="B65" t="n" s="0">
+      <c r="B65" s="0" t="n">
         <v>0.8225</v>
       </c>
-      <c r="C65" t="n" s="0">
+      <c r="C65" s="0" t="n">
         <v>1.1304</v>
       </c>
-      <c r="D65" t="n" s="0">
+      <c r="D65" s="0" t="n">
         <v>0.678</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n" s="0">
+      <c r="A66" s="7" t="n">
         <v>41704.083333333336</v>
       </c>
-      <c r="B66" t="n" s="0">
+      <c r="B66" s="0" t="n">
         <v>0.8204</v>
       </c>
-      <c r="C66" t="n" s="0">
+      <c r="C66" s="0" t="n">
         <v>1.1266</v>
       </c>
-      <c r="D66" t="n" s="0">
+      <c r="D66" s="0" t="n">
         <v>0.6751</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n" s="0">
+      <c r="A67" s="7" t="n">
         <v>41705.083333333336</v>
       </c>
-      <c r="B67" t="n" s="0">
+      <c r="B67" s="0" t="n">
         <v>0.8199</v>
       </c>
-      <c r="C67" t="n" s="0">
+      <c r="C67" s="0" t="n">
         <v>1.1289</v>
       </c>
-      <c r="D67" t="n" s="0">
+      <c r="D67" s="0" t="n">
         <v>0.675</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n" s="0">
+      <c r="A68" s="7" t="n">
         <v>41706.083333333336</v>
       </c>
-      <c r="B68" t="n" s="0">
+      <c r="B68" s="0" t="n">
         <v>0.8203</v>
       </c>
-      <c r="C68" t="n" s="0">
+      <c r="C68" s="0" t="n">
         <v>1.1377</v>
       </c>
-      <c r="D68" t="n" s="0">
+      <c r="D68" s="0" t="n">
         <v>0.6797</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n" s="0">
+      <c r="A69" s="7" t="n">
         <v>41707.083333333336</v>
       </c>
-      <c r="B69" t="n" s="0">
+      <c r="B69" s="0" t="n">
         <v>0.8206</v>
       </c>
-      <c r="C69" t="n" s="0">
+      <c r="C69" s="0" t="n">
         <v>1.1387</v>
       </c>
-      <c r="D69" t="n" s="0">
+      <c r="D69" s="0" t="n">
         <v>0.6812</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n" s="0">
+      <c r="A70" s="7" t="n">
         <v>41708.083333333336</v>
       </c>
-      <c r="B70" t="n" s="0">
+      <c r="B70" s="0" t="n">
         <v>0.8206</v>
       </c>
-      <c r="C70" t="n" s="0">
+      <c r="C70" s="0" t="n">
         <v>1.1386</v>
       </c>
-      <c r="D70" t="n" s="0">
+      <c r="D70" s="0" t="n">
         <v>0.6812</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n" s="0">
+      <c r="A71" s="7" t="n">
         <v>41709.083333333336</v>
       </c>
-      <c r="B71" t="n" s="0">
+      <c r="B71" s="0" t="n">
         <v>0.8208</v>
       </c>
-      <c r="C71" t="n" s="0">
+      <c r="C71" s="0" t="n">
         <v>1.1393</v>
       </c>
-      <c r="D71" t="n" s="0">
+      <c r="D71" s="0" t="n">
         <v>0.6827</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n" s="0">
+      <c r="A72" s="7" t="n">
         <v>41710.083333333336</v>
       </c>
-      <c r="B72" t="n" s="0">
+      <c r="B72" s="0" t="n">
         <v>0.8209</v>
       </c>
-      <c r="C72" t="n" s="0">
+      <c r="C72" s="0" t="n">
         <v>1.1381</v>
       </c>
-      <c r="D72" t="n" s="0">
+      <c r="D72" s="0" t="n">
         <v>0.6843</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n" s="0">
+      <c r="A73" s="7" t="n">
         <v>41711.083333333336</v>
       </c>
-      <c r="B73" t="n" s="0">
+      <c r="B73" s="0" t="n">
         <v>0.8223</v>
       </c>
-      <c r="C73" t="n" s="0">
+      <c r="C73" s="0" t="n">
         <v>1.1407</v>
       </c>
-      <c r="D73" t="n" s="0">
+      <c r="D73" s="0" t="n">
         <v>0.6865</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n" s="0">
+      <c r="A74" s="7" t="n">
         <v>41712.083333333336</v>
       </c>
-      <c r="B74" t="n" s="0">
+      <c r="B74" s="0" t="n">
         <v>0.8229</v>
       </c>
-      <c r="C74" t="n" s="0">
+      <c r="C74" s="0" t="n">
         <v>1.1453</v>
       </c>
-      <c r="D74" t="n" s="0">
+      <c r="D74" s="0" t="n">
         <v>0.6878</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n" s="0">
+      <c r="A75" s="7" t="n">
         <v>41713.083333333336</v>
       </c>
-      <c r="B75" t="n" s="0">
+      <c r="B75" s="0" t="n">
         <v>0.8241</v>
       </c>
-      <c r="C75" t="n" s="0">
+      <c r="C75" s="0" t="n">
         <v>1.144</v>
       </c>
-      <c r="D75" t="n" s="0">
+      <c r="D75" s="0" t="n">
         <v>0.6884</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n" s="0">
+      <c r="A76" s="7" t="n">
         <v>41714.083333333336</v>
       </c>
-      <c r="B76" t="n" s="0">
+      <c r="B76" s="0" t="n">
         <v>0.8236</v>
       </c>
-      <c r="C76" t="n" s="0">
+      <c r="C76" s="0" t="n">
         <v>1.1456</v>
       </c>
-      <c r="D76" t="n" s="0">
+      <c r="D76" s="0" t="n">
         <v>0.6882</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n" s="0">
+      <c r="A77" s="7" t="n">
         <v>41715.083333333336</v>
       </c>
-      <c r="B77" t="n" s="0">
+      <c r="B77" s="0" t="n">
         <v>0.8236</v>
       </c>
-      <c r="C77" t="n" s="0">
+      <c r="C77" s="0" t="n">
         <v>1.1456</v>
       </c>
-      <c r="D77" t="n" s="0">
+      <c r="D77" s="0" t="n">
         <v>0.6882</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n" s="0">
+      <c r="A78" s="7" t="n">
         <v>41716.083333333336</v>
       </c>
-      <c r="B78" t="n" s="0">
+      <c r="B78" s="0" t="n">
         <v>0.8231</v>
       </c>
-      <c r="C78" t="n" s="0">
+      <c r="C78" s="0" t="n">
         <v>1.1449</v>
       </c>
-      <c r="D78" t="n" s="0">
+      <c r="D78" s="0" t="n">
         <v>0.6882</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n" s="0">
+      <c r="A79" s="7" t="n">
         <v>41717.083333333336</v>
       </c>
-      <c r="B79" t="n" s="0">
+      <c r="B79" s="0" t="n">
         <v>0.8222</v>
       </c>
-      <c r="C79" t="n" s="0">
+      <c r="C79" s="0" t="n">
         <v>1.1445</v>
       </c>
-      <c r="D79" t="n" s="0">
+      <c r="D79" s="0" t="n">
         <v>0.689</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n" s="0">
+      <c r="A80" s="7" t="n">
         <v>41718.083333333336</v>
       </c>
-      <c r="B80" t="n" s="0">
+      <c r="B80" s="0" t="n">
         <v>0.8216</v>
       </c>
-      <c r="C80" t="n" s="0">
+      <c r="C80" s="0" t="n">
         <v>1.1429</v>
       </c>
-      <c r="D80" t="n" s="0">
+      <c r="D80" s="0" t="n">
         <v>0.6884</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n" s="0">
+      <c r="A81" s="7" t="n">
         <v>41719.083333333336</v>
       </c>
-      <c r="B81" t="n" s="0">
+      <c r="B81" s="0" t="n">
         <v>0.8205</v>
       </c>
-      <c r="C81" t="n" s="0">
+      <c r="C81" s="0" t="n">
         <v>1.1326</v>
       </c>
-      <c r="D81" t="n" s="0">
+      <c r="D81" s="0" t="n">
         <v>0.6854</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n" s="0">
+      <c r="A82" s="7" t="n">
         <v>41720.083333333336</v>
       </c>
-      <c r="B82" t="n" s="0">
+      <c r="B82" s="0" t="n">
         <v>0.8212</v>
       </c>
-      <c r="C82" t="n" s="0">
+      <c r="C82" s="0" t="n">
         <v>1.1323</v>
       </c>
-      <c r="D82" t="n" s="0">
+      <c r="D82" s="0" t="n">
         <v>0.6862</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n" s="0">
+      <c r="A83" s="7" t="n">
         <v>41721.083333333336</v>
       </c>
-      <c r="B83" t="n" s="0">
+      <c r="B83" s="0" t="n">
         <v>0.8209</v>
       </c>
-      <c r="C83" t="n" s="0">
+      <c r="C83" s="0" t="n">
         <v>1.1324</v>
       </c>
-      <c r="D83" t="n" s="0">
+      <c r="D83" s="0" t="n">
         <v>0.6867</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n" s="0">
+      <c r="A84" s="7" t="n">
         <v>41722.083333333336</v>
       </c>
-      <c r="B84" t="n" s="0">
+      <c r="B84" s="0" t="n">
         <v>0.8209</v>
       </c>
-      <c r="C84" t="n" s="0">
+      <c r="C84" s="0" t="n">
         <v>1.1324</v>
       </c>
-      <c r="D84" t="n" s="0">
+      <c r="D84" s="0" t="n">
         <v>0.6867</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n" s="0">
+      <c r="A85" s="7" t="n">
         <v>41723.083333333336</v>
       </c>
-      <c r="B85" t="n" s="0">
+      <c r="B85" s="0" t="n">
         <v>0.8204</v>
       </c>
-      <c r="C85" t="n" s="0">
+      <c r="C85" s="0" t="n">
         <v>1.1318</v>
       </c>
-      <c r="D85" t="n" s="0">
+      <c r="D85" s="0" t="n">
         <v>0.6864</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n" s="0">
+      <c r="A86" s="7" t="n">
         <v>41724.083333333336</v>
       </c>
-      <c r="B86" t="n" s="0">
+      <c r="B86" s="0" t="n">
         <v>0.8201</v>
       </c>
-      <c r="C86" t="n" s="0">
+      <c r="C86" s="0" t="n">
         <v>1.1335</v>
       </c>
-      <c r="D86" t="n" s="0">
+      <c r="D86" s="0" t="n">
         <v>0.6867</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n" s="0">
+      <c r="A87" s="7" t="n">
         <v>41725.083333333336</v>
       </c>
-      <c r="B87" t="n" s="0">
+      <c r="B87" s="0" t="n">
         <v>0.8189</v>
       </c>
-      <c r="C87" t="n" s="0">
+      <c r="C87" s="0" t="n">
         <v>1.1304</v>
       </c>
-      <c r="D87" t="n" s="0">
+      <c r="D87" s="0" t="n">
         <v>0.6832</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n" s="0">
+      <c r="A88" s="7" t="n">
         <v>41726.083333333336</v>
       </c>
-      <c r="B88" t="n" s="0">
+      <c r="B88" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="C88" t="n" s="0">
+      <c r="C88" s="0" t="n">
         <v>1.129</v>
       </c>
-      <c r="D88" t="n" s="0">
+      <c r="D88" s="0" t="n">
         <v>0.6802</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n" s="0">
+      <c r="A89" s="7" t="n">
         <v>41727.083333333336</v>
       </c>
-      <c r="B89" t="n" s="0">
+      <c r="B89" s="0" t="n">
         <v>0.8202</v>
       </c>
-      <c r="C89" t="n" s="0">
+      <c r="C89" s="0" t="n">
         <v>1.1273</v>
       </c>
-      <c r="D89" t="n" s="0">
+      <c r="D89" s="0" t="n">
         <v>0.6781</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n" s="0">
+      <c r="A90" s="7" t="n">
         <v>41728.083333333336</v>
       </c>
-      <c r="B90" t="n" s="0">
+      <c r="B90" s="0" t="n">
         <v>0.8198</v>
       </c>
-      <c r="C90" t="n" s="0">
+      <c r="C90" s="0" t="n">
         <v>1.1272</v>
       </c>
-      <c r="D90" t="n" s="0">
+      <c r="D90" s="0" t="n">
         <v>0.6775</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n" s="0">
+      <c r="A91" s="7" t="n">
         <v>41729.083333333336</v>
       </c>
-      <c r="B91" t="n" s="0">
+      <c r="B91" s="0" t="n">
         <v>0.8198</v>
       </c>
-      <c r="C91" t="n" s="0">
+      <c r="C91" s="0" t="n">
         <v>1.1272</v>
       </c>
-      <c r="D91" t="n" s="0">
+      <c r="D91" s="0" t="n">
         <v>0.6775</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n" s="0">
+      <c r="A92" s="7" t="n">
         <v>41730.083333333336</v>
       </c>
-      <c r="B92" t="n" s="0">
+      <c r="B92" s="0" t="n">
         <v>0.8202</v>
       </c>
-      <c r="C92" t="n" s="0">
+      <c r="C92" s="0" t="n">
         <v>1.1291</v>
       </c>
-      <c r="D92" t="n" s="0">
+      <c r="D92" s="0" t="n">
         <v>0.6782</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n" s="0">
+      <c r="A93" s="7" t="n">
         <v>41731.083333333336</v>
       </c>
-      <c r="B93" t="n" s="0">
+      <c r="B93" s="0" t="n">
         <v>0.8208</v>
       </c>
-      <c r="C93" t="n" s="0">
+      <c r="C93" s="0" t="n">
         <v>1.1316</v>
       </c>
-      <c r="D93" t="n" s="0">
+      <c r="D93" s="0" t="n">
         <v>0.6796</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n" s="0">
+      <c r="A94" s="7" t="n">
         <v>41732.083333333336</v>
       </c>
-      <c r="B94" t="n" s="0">
+      <c r="B94" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="C94" t="n" s="0">
+      <c r="C94" s="0" t="n">
         <v>1.1306</v>
       </c>
-      <c r="D94" t="n" s="0">
+      <c r="D94" s="0" t="n">
         <v>0.6796</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n" s="0">
+      <c r="A95" s="7" t="n">
         <v>41733.083333333336</v>
       </c>
-      <c r="B95" t="n" s="0">
+      <c r="B95" s="0" t="n">
         <v>0.8187</v>
       </c>
-      <c r="C95" t="n" s="0">
+      <c r="C95" s="0" t="n">
         <v>1.1255</v>
       </c>
-      <c r="D95" t="n" s="0">
+      <c r="D95" s="0" t="n">
         <v>0.6774</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n" s="0">
+      <c r="A96" s="7" t="n">
         <v>41734.083333333336</v>
       </c>
-      <c r="B96" t="n" s="0">
+      <c r="B96" s="0" t="n">
         <v>0.8177</v>
       </c>
-      <c r="C96" t="n" s="0">
+      <c r="C96" s="0" t="n">
         <v>1.1208</v>
       </c>
-      <c r="D96" t="n" s="0">
+      <c r="D96" s="0" t="n">
         <v>0.6758</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n" s="0">
+      <c r="A97" s="7" t="n">
         <v>41735.083333333336</v>
       </c>
-      <c r="B97" t="n" s="0">
+      <c r="B97" s="0" t="n">
         <v>0.8174</v>
       </c>
-      <c r="C97" t="n" s="0">
+      <c r="C97" s="0" t="n">
         <v>1.1198</v>
       </c>
-      <c r="D97" t="n" s="0">
+      <c r="D97" s="0" t="n">
         <v>0.6758</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n" s="0">
+      <c r="A98" s="7" t="n">
         <v>41736.083333333336</v>
       </c>
-      <c r="B98" t="n" s="0">
+      <c r="B98" s="0" t="n">
         <v>0.8174</v>
       </c>
-      <c r="C98" t="n" s="0">
+      <c r="C98" s="0" t="n">
         <v>1.1198</v>
       </c>
-      <c r="D98" t="n" s="0">
+      <c r="D98" s="0" t="n">
         <v>0.6758</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n" s="0">
+      <c r="A99" s="7" t="n">
         <v>41737.083333333336</v>
       </c>
-      <c r="B99" t="n" s="0">
+      <c r="B99" s="0" t="n">
         <v>0.8187</v>
       </c>
-      <c r="C99" t="n" s="0">
+      <c r="C99" s="0" t="n">
         <v>1.1232</v>
       </c>
-      <c r="D99" t="n" s="0">
+      <c r="D99" s="0" t="n">
         <v>0.6772</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n" s="0">
+      <c r="A100" s="7" t="n">
         <v>41738.083333333336</v>
       </c>
-      <c r="B100" t="n" s="0">
+      <c r="B100" s="0" t="n">
         <v>0.8199</v>
       </c>
-      <c r="C100" t="n" s="0">
+      <c r="C100" s="0" t="n">
         <v>1.1287</v>
       </c>
-      <c r="D100" t="n" s="0">
+      <c r="D100" s="0" t="n">
         <v>0.6768</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n" s="0">
+      <c r="A101" s="7" t="n">
         <v>41739.083333333336</v>
       </c>
-      <c r="B101" t="n" s="0">
+      <c r="B101" s="0" t="n">
         <v>0.8205</v>
       </c>
-      <c r="C101" t="n" s="0">
+      <c r="C101" s="0" t="n">
         <v>1.1326</v>
       </c>
-      <c r="D101" t="n" s="0">
+      <c r="D101" s="0" t="n">
         <v>0.6761</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n" s="0">
+      <c r="A102" s="7" t="n">
         <v>41740.083333333336</v>
       </c>
-      <c r="B102" t="n" s="0">
+      <c r="B102" s="0" t="n">
         <v>0.8211</v>
       </c>
-      <c r="C102" t="n" s="0">
+      <c r="C102" s="0" t="n">
         <v>1.1384</v>
       </c>
-      <c r="D102" t="n" s="0">
+      <c r="D102" s="0" t="n">
         <v>0.6782</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n" s="0">
+      <c r="A103" s="7" t="n">
         <v>41741.083333333336</v>
       </c>
-      <c r="B103" t="n" s="0">
+      <c r="B103" s="0" t="n">
         <v>0.8219</v>
       </c>
-      <c r="C103" t="n" s="0">
+      <c r="C103" s="0" t="n">
         <v>1.1415</v>
       </c>
-      <c r="D103" t="n" s="0">
+      <c r="D103" s="0" t="n">
         <v>0.6812</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n" s="0">
+      <c r="A104" s="7" t="n">
         <v>41742.083333333336</v>
       </c>
-      <c r="B104" t="n" s="0">
+      <c r="B104" s="0" t="n">
         <v>0.8219</v>
       </c>
-      <c r="C104" t="n" s="0">
+      <c r="C104" s="0" t="n">
         <v>1.1413</v>
       </c>
-      <c r="D104" t="n" s="0">
+      <c r="D104" s="0" t="n">
         <v>0.6821</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n" s="0">
+      <c r="A105" s="7" t="n">
         <v>41743.083333333336</v>
       </c>
-      <c r="B105" t="n" s="0">
+      <c r="B105" s="0" t="n">
         <v>0.8219</v>
       </c>
-      <c r="C105" t="n" s="0">
+      <c r="C105" s="0" t="n">
         <v>1.1413</v>
       </c>
-      <c r="D105" t="n" s="0">
+      <c r="D105" s="0" t="n">
         <v>0.6821</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n" s="0">
+      <c r="A106" s="7" t="n">
         <v>41744.083333333336</v>
       </c>
-      <c r="B106" t="n" s="0">
+      <c r="B106" s="0" t="n">
         <v>0.8229</v>
       </c>
-      <c r="C106" t="n" s="0">
+      <c r="C106" s="0" t="n">
         <v>1.1386</v>
       </c>
-      <c r="D106" t="n" s="0">
+      <c r="D106" s="0" t="n">
         <v>0.6806</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n" s="0">
+      <c r="A107" s="7" t="n">
         <v>41745.083333333336</v>
       </c>
-      <c r="B107" t="n" s="0">
+      <c r="B107" s="0" t="n">
         <v>0.8223</v>
       </c>
-      <c r="C107" t="n" s="0">
+      <c r="C107" s="0" t="n">
         <v>1.1357</v>
       </c>
-      <c r="D107" t="n" s="0">
+      <c r="D107" s="0" t="n">
         <v>0.6792</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n" s="0">
+      <c r="A108" s="7" t="n">
         <v>41746.083333333336</v>
       </c>
-      <c r="B108" t="n" s="0">
+      <c r="B108" s="0" t="n">
         <v>0.8217</v>
       </c>
-      <c r="C108" t="n" s="0">
+      <c r="C108" s="0" t="n">
         <v>1.1358</v>
       </c>
-      <c r="D108" t="n" s="0">
+      <c r="D108" s="0" t="n">
         <v>0.6774</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n" s="0">
+      <c r="A109" s="7" t="n">
         <v>41747.083333333336</v>
       </c>
-      <c r="B109" t="n" s="0">
+      <c r="B109" s="0" t="n">
         <v>0.8207</v>
       </c>
-      <c r="C109" t="n" s="0">
+      <c r="C109" s="0" t="n">
         <v>1.1353</v>
       </c>
-      <c r="D109" t="n" s="0">
+      <c r="D109" s="0" t="n">
         <v>0.6752</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n" s="0">
+      <c r="A110" s="7" t="n">
         <v>41748.083333333336</v>
       </c>
-      <c r="B110" t="n" s="0">
+      <c r="B110" s="0" t="n">
         <v>0.8196</v>
       </c>
-      <c r="C110" t="n" s="0">
+      <c r="C110" s="0" t="n">
         <v>1.1322</v>
       </c>
-      <c r="D110" t="n" s="0">
+      <c r="D110" s="0" t="n">
         <v>0.6744</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n" s="0">
+      <c r="A111" s="7" t="n">
         <v>41749.083333333336</v>
       </c>
-      <c r="B111" t="n" s="0">
+      <c r="B111" s="0" t="n">
         <v>0.8192</v>
       </c>
-      <c r="C111" t="n" s="0">
+      <c r="C111" s="0" t="n">
         <v>1.1307</v>
       </c>
-      <c r="D111" t="n" s="0">
+      <c r="D111" s="0" t="n">
         <v>0.6737</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n" s="0">
+      <c r="A112" s="7" t="n">
         <v>41750.083333333336</v>
       </c>
-      <c r="B112" t="n" s="0">
+      <c r="B112" s="0" t="n">
         <v>0.8192</v>
       </c>
-      <c r="C112" t="n" s="0">
+      <c r="C112" s="0" t="n">
         <v>1.1307</v>
       </c>
-      <c r="D112" t="n" s="0">
+      <c r="D112" s="0" t="n">
         <v>0.6737</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n" s="0">
+      <c r="A113" s="7" t="n">
         <v>41751.083333333336</v>
       </c>
-      <c r="B113" t="n" s="0">
+      <c r="B113" s="0" t="n">
         <v>0.8195</v>
       </c>
-      <c r="C113" t="n" s="0">
+      <c r="C113" s="0" t="n">
         <v>1.1317</v>
       </c>
-      <c r="D113" t="n" s="0">
+      <c r="D113" s="0" t="n">
         <v>0.6737</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n" s="0">
+      <c r="A114" s="7" t="n">
         <v>41752.083333333336</v>
       </c>
-      <c r="B114" t="n" s="0">
+      <c r="B114" s="0" t="n">
         <v>0.8189</v>
       </c>
-      <c r="C114" t="n" s="0">
+      <c r="C114" s="0" t="n">
         <v>1.1301</v>
       </c>
-      <c r="D114" t="n" s="0">
+      <c r="D114" s="0" t="n">
         <v>0.6722</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n" s="0">
+      <c r="A115" s="7" t="n">
         <v>41753.083333333336</v>
       </c>
-      <c r="B115" t="n" s="0">
+      <c r="B115" s="0" t="n">
         <v>0.8191</v>
       </c>
-      <c r="C115" t="n" s="0">
+      <c r="C115" s="0" t="n">
         <v>1.1321</v>
       </c>
-      <c r="D115" t="n" s="0">
+      <c r="D115" s="0" t="n">
         <v>0.6736</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n" s="0">
+      <c r="A116" s="7" t="n">
         <v>41754.083333333336</v>
       </c>
-      <c r="B116" t="n" s="0">
+      <c r="B116" s="0" t="n">
         <v>0.8195</v>
       </c>
-      <c r="C116" t="n" s="0">
+      <c r="C116" s="0" t="n">
         <v>1.1327</v>
       </c>
-      <c r="D116" t="n" s="0">
+      <c r="D116" s="0" t="n">
         <v>0.6746</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n" s="0">
+      <c r="A117" s="7" t="n">
         <v>41755.083333333336</v>
       </c>
-      <c r="B117" t="n" s="0">
+      <c r="B117" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="C117" t="n" s="0">
+      <c r="C117" s="0" t="n">
         <v>1.1345</v>
       </c>
-      <c r="D117" t="n" s="0">
+      <c r="D117" s="0" t="n">
         <v>0.675</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n" s="0">
+      <c r="A118" s="7" t="n">
         <v>41756.083333333336</v>
       </c>
-      <c r="B118" t="n" s="0">
+      <c r="B118" s="0" t="n">
         <v>0.8198</v>
       </c>
-      <c r="C118" t="n" s="0">
+      <c r="C118" s="0" t="n">
         <v>1.1339</v>
       </c>
-      <c r="D118" t="n" s="0">
+      <c r="D118" s="0" t="n">
         <v>0.6749</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n" s="0">
+      <c r="A119" s="7" t="n">
         <v>41757.083333333336</v>
       </c>
-      <c r="B119" t="n" s="0">
+      <c r="B119" s="0" t="n">
         <v>0.8198</v>
       </c>
-      <c r="C119" t="n" s="0">
+      <c r="C119" s="0" t="n">
         <v>1.1339</v>
       </c>
-      <c r="D119" t="n" s="0">
+      <c r="D119" s="0" t="n">
         <v>0.6749</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n" s="0">
+      <c r="A120" s="7" t="n">
         <v>41758.083333333336</v>
       </c>
-      <c r="B120" t="n" s="0">
+      <c r="B120" s="0" t="n">
         <v>0.8204</v>
       </c>
-      <c r="C120" t="n" s="0">
+      <c r="C120" s="0" t="n">
         <v>1.1358</v>
       </c>
-      <c r="D120" t="n" s="0">
+      <c r="D120" s="0" t="n">
         <v>0.6755</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n" s="0">
+      <c r="A121" s="7" t="n">
         <v>41759.083333333336</v>
       </c>
-      <c r="B121" t="n" s="0">
+      <c r="B121" s="0" t="n">
         <v>0.8197</v>
       </c>
-      <c r="C121" t="n" s="0">
+      <c r="C121" s="0" t="n">
         <v>1.1347</v>
       </c>
-      <c r="D121" t="n" s="0">
+      <c r="D121" s="0" t="n">
         <v>0.6746</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n" s="0">
+      <c r="A122" s="7" t="n">
         <v>41760.083333333336</v>
       </c>
-      <c r="B122" t="n" s="0">
+      <c r="B122" s="0" t="n">
         <v>0.8194</v>
       </c>
-      <c r="C122" t="n" s="0">
+      <c r="C122" s="0" t="n">
         <v>1.1335</v>
       </c>
-      <c r="D122" t="n" s="0">
+      <c r="D122" s="0" t="n">
         <v>0.6731</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n" s="0">
+      <c r="A123" s="7" t="n">
         <v>41761.083333333336</v>
       </c>
-      <c r="B123" t="n" s="0">
+      <c r="B123" s="0" t="n">
         <v>0.8196</v>
       </c>
-      <c r="C123" t="n" s="0">
+      <c r="C123" s="0" t="n">
         <v>1.1369</v>
       </c>
-      <c r="D123" t="n" s="0">
+      <c r="D123" s="0" t="n">
         <v>0.6733</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n" s="0">
+      <c r="A124" s="7" t="n">
         <v>41762.083333333336</v>
       </c>
-      <c r="B124" t="n" s="0">
+      <c r="B124" s="0" t="n">
         <v>0.8202</v>
       </c>
-      <c r="C124" t="n" s="0">
+      <c r="C124" s="0" t="n">
         <v>1.1368</v>
       </c>
-      <c r="D124" t="n" s="0">
+      <c r="D124" s="0" t="n">
         <v>0.6736</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n" s="0">
+      <c r="A125" s="7" t="n">
         <v>41763.083333333336</v>
       </c>
-      <c r="B125" t="n" s="0">
+      <c r="B125" s="0" t="n">
         <v>0.8207</v>
       </c>
-      <c r="C125" t="n" s="0">
+      <c r="C125" s="0" t="n">
         <v>1.1381</v>
       </c>
-      <c r="D125" t="n" s="0">
+      <c r="D125" s="0" t="n">
         <v>0.6745</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n" s="0">
+      <c r="A126" s="7" t="n">
         <v>41764.083333333336</v>
       </c>
-      <c r="B126" t="n" s="0">
+      <c r="B126" s="0" t="n">
         <v>0.8207</v>
       </c>
-      <c r="C126" t="n" s="0">
+      <c r="C126" s="0" t="n">
         <v>1.1381</v>
       </c>
-      <c r="D126" t="n" s="0">
+      <c r="D126" s="0" t="n">
         <v>0.6745</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n" s="0">
+      <c r="A127" s="7" t="n">
         <v>41765.083333333336</v>
       </c>
-      <c r="B127" t="n" s="0">
+      <c r="B127" s="0" t="n">
         <v>0.8212</v>
       </c>
-      <c r="C127" t="n" s="0">
+      <c r="C127" s="0" t="n">
         <v>1.1394</v>
       </c>
-      <c r="D127" t="n" s="0">
+      <c r="D127" s="0" t="n">
         <v>0.6754</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n" s="0">
+      <c r="A128" s="7" t="n">
         <v>41766.083333333336</v>
       </c>
-      <c r="B128" t="n" s="0">
+      <c r="B128" s="0" t="n">
         <v>0.8212</v>
       </c>
-      <c r="C128" t="n" s="0">
+      <c r="C128" s="0" t="n">
         <v>1.1421</v>
       </c>
-      <c r="D128" t="n" s="0">
+      <c r="D128" s="0" t="n">
         <v>0.6746</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n" s="0">
+      <c r="A129" s="7" t="n">
         <v>41767.083333333336</v>
       </c>
-      <c r="B129" t="n" s="0">
+      <c r="B129" s="0" t="n">
         <v>0.821</v>
       </c>
-      <c r="C129" t="n" s="0">
+      <c r="C129" s="0" t="n">
         <v>1.1431</v>
       </c>
-      <c r="D129" t="n" s="0">
+      <c r="D129" s="0" t="n">
         <v>0.6736</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n" s="0">
+      <c r="A130" s="7" t="n">
         <v>41768.083333333336</v>
       </c>
-      <c r="B130" t="n" s="0">
+      <c r="B130" s="0" t="n">
         <v>0.8206</v>
       </c>
-      <c r="C130" t="n" s="0">
+      <c r="C130" s="0" t="n">
         <v>1.1408</v>
       </c>
-      <c r="D130" t="n" s="0">
+      <c r="D130" s="0" t="n">
         <v>0.6729</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n" s="0">
+      <c r="A131" s="7" t="n">
         <v>41769.083333333336</v>
       </c>
-      <c r="B131" t="n" s="0">
+      <c r="B131" s="0" t="n">
         <v>0.8204</v>
       </c>
-      <c r="C131" t="n" s="0">
+      <c r="C131" s="0" t="n">
         <v>1.1325</v>
       </c>
-      <c r="D131" t="n" s="0">
+      <c r="D131" s="0" t="n">
         <v>0.6704</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n" s="0">
+      <c r="A132" s="7" t="n">
         <v>41770.083333333336</v>
       </c>
-      <c r="B132" t="n" s="0">
+      <c r="B132" s="0" t="n">
         <v>0.8198</v>
       </c>
-      <c r="C132" t="n" s="0">
+      <c r="C132" s="0" t="n">
         <v>1.1278</v>
       </c>
-      <c r="D132" t="n" s="0">
+      <c r="D132" s="0" t="n">
         <v>0.6693</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n" s="0">
+      <c r="A133" s="7" t="n">
         <v>41771.083333333336</v>
       </c>
-      <c r="B133" t="n" s="0">
+      <c r="B133" s="0" t="n">
         <v>0.8198</v>
       </c>
-      <c r="C133" t="n" s="0">
+      <c r="C133" s="0" t="n">
         <v>1.1278</v>
       </c>
-      <c r="D133" t="n" s="0">
+      <c r="D133" s="0" t="n">
         <v>0.6693</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n" s="0">
+      <c r="A134" s="7" t="n">
         <v>41772.083333333336</v>
       </c>
-      <c r="B134" t="n" s="0">
+      <c r="B134" s="0" t="n">
         <v>0.8191</v>
       </c>
-      <c r="C134" t="n" s="0">
+      <c r="C134" s="0" t="n">
         <v>1.1271</v>
       </c>
-      <c r="D134" t="n" s="0">
+      <c r="D134" s="0" t="n">
         <v>0.6681</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n" s="0">
+      <c r="A135" s="7" t="n">
         <v>41773.083333333336</v>
       </c>
-      <c r="B135" t="n" s="0">
+      <c r="B135" s="0" t="n">
         <v>0.8193</v>
       </c>
-      <c r="C135" t="n" s="0">
+      <c r="C135" s="0" t="n">
         <v>1.1253</v>
       </c>
-      <c r="D135" t="n" s="0">
+      <c r="D135" s="0" t="n">
         <v>0.6677</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n" s="0">
+      <c r="A136" s="7" t="n">
         <v>41774.083333333336</v>
       </c>
-      <c r="B136" t="n" s="0">
+      <c r="B136" s="0" t="n">
         <v>0.8198</v>
       </c>
-      <c r="C136" t="n" s="0">
+      <c r="C136" s="0" t="n">
         <v>1.124</v>
       </c>
-      <c r="D136" t="n" s="0">
+      <c r="D136" s="0" t="n">
         <v>0.6686</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n" s="0">
+      <c r="A137" s="7" t="n">
         <v>41775.125</v>
       </c>
-      <c r="B137" t="n" s="0">
+      <c r="B137" s="0" t="n">
         <v>0.8191</v>
       </c>
-      <c r="C137" t="n" s="0">
+      <c r="C137" s="0" t="n">
         <v>1.1221</v>
       </c>
-      <c r="D137" t="n" s="0">
+      <c r="D137" s="0" t="n">
         <v>0.669</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n" s="0">
+      <c r="A138" s="7" t="n">
         <v>41776.125</v>
       </c>
-      <c r="B138" t="n" s="0">
+      <c r="B138" s="0" t="n">
         <v>0.8186</v>
       </c>
-      <c r="C138" t="n" s="0">
+      <c r="C138" s="0" t="n">
         <v>1.1222</v>
       </c>
-      <c r="D138" t="n" s="0">
+      <c r="D138" s="0" t="n">
         <v>0.6678</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n" s="0">
+      <c r="A139" s="7" t="n">
         <v>41777.125</v>
       </c>
-      <c r="B139" t="n" s="0">
+      <c r="B139" s="0" t="n">
         <v>0.818</v>
       </c>
-      <c r="C139" t="n" s="0">
+      <c r="C139" s="0" t="n">
         <v>1.1198</v>
       </c>
-      <c r="D139" t="n" s="0">
+      <c r="D139" s="0" t="n">
         <v>0.666</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n" s="0">
+      <c r="A140" s="7" t="n">
         <v>41778.125</v>
       </c>
-      <c r="B140" t="n" s="0">
+      <c r="B140" s="0" t="n">
         <v>0.818</v>
       </c>
-      <c r="C140" t="n" s="0">
+      <c r="C140" s="0" t="n">
         <v>1.1198</v>
       </c>
-      <c r="D140" t="n" s="0">
+      <c r="D140" s="0" t="n">
         <v>0.666</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n" s="0">
+      <c r="A141" s="7" t="n">
         <v>41779.125</v>
       </c>
-      <c r="B141" t="n" s="0">
+      <c r="B141" s="0" t="n">
         <v>0.818</v>
       </c>
-      <c r="C141" t="n" s="0">
+      <c r="C141" s="0" t="n">
         <v>1.1215</v>
       </c>
-      <c r="D141" t="n" s="0">
+      <c r="D141" s="0" t="n">
         <v>0.6666</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n" s="0">
+      <c r="A142" s="7" t="n">
         <v>41780.125</v>
       </c>
-      <c r="B142" t="n" s="0">
+      <c r="B142" s="0" t="n">
         <v>0.8179</v>
       </c>
-      <c r="C142" t="n" s="0">
+      <c r="C142" s="0" t="n">
         <v>1.1207</v>
       </c>
-      <c r="D142" t="n" s="0">
+      <c r="D142" s="0" t="n">
         <v>0.666</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n" s="0">
+      <c r="A143" s="7" t="n">
         <v>41781.125</v>
       </c>
-      <c r="B143" t="n" s="0">
+      <c r="B143" s="0" t="n">
         <v>0.8183</v>
       </c>
-      <c r="C143" t="n" s="0">
+      <c r="C143" s="0" t="n">
         <v>1.1202</v>
       </c>
-      <c r="D143" t="n" s="0">
+      <c r="D143" s="0" t="n">
         <v>0.6642</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n" s="0">
+      <c r="A144" s="7" t="n">
         <v>41782.125</v>
       </c>
-      <c r="B144" t="n" s="0">
+      <c r="B144" s="0" t="n">
         <v>0.8184</v>
       </c>
-      <c r="C144" t="n" s="0">
+      <c r="C144" s="0" t="n">
         <v>1.1186</v>
       </c>
-      <c r="D144" t="n" s="0">
+      <c r="D144" s="0" t="n">
         <v>0.6627</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n" s="0">
+      <c r="A145" s="7" t="n">
         <v>41783.125</v>
       </c>
-      <c r="B145" t="n" s="0">
+      <c r="B145" s="0" t="n">
         <v>0.8189</v>
       </c>
-      <c r="C145" t="n" s="0">
+      <c r="C145" s="0" t="n">
         <v>1.1168</v>
       </c>
-      <c r="D145" t="n" s="0">
+      <c r="D145" s="0" t="n">
         <v>0.6628</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n" s="0">
+      <c r="A146" s="7" t="n">
         <v>41784.125</v>
       </c>
-      <c r="B146" t="n" s="0">
+      <c r="B146" s="0" t="n">
         <v>0.8188</v>
       </c>
-      <c r="C146" t="n" s="0">
+      <c r="C146" s="0" t="n">
         <v>1.1154</v>
       </c>
-      <c r="D146" t="n" s="0">
+      <c r="D146" s="0" t="n">
         <v>0.6625</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n" s="0">
+      <c r="A147" s="7" t="n">
         <v>41785.125</v>
       </c>
-      <c r="B147" t="n" s="0">
+      <c r="B147" s="0" t="n">
         <v>0.8188</v>
       </c>
-      <c r="C147" t="n" s="0">
+      <c r="C147" s="0" t="n">
         <v>1.1154</v>
       </c>
-      <c r="D147" t="n" s="0">
+      <c r="D147" s="0" t="n">
         <v>0.6625</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n" s="0">
+      <c r="A148" s="7" t="n">
         <v>41786.125</v>
       </c>
-      <c r="B148" t="n" s="0">
+      <c r="B148" s="0" t="n">
         <v>0.819</v>
       </c>
-      <c r="C148" t="n" s="0">
+      <c r="C148" s="0" t="n">
         <v>1.1166</v>
       </c>
-      <c r="D148" t="n" s="0">
+      <c r="D148" s="0" t="n">
         <v>0.6631</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n" s="0">
+      <c r="A149" s="7" t="n">
         <v>41787.125</v>
       </c>
-      <c r="B149" t="n" s="0">
+      <c r="B149" s="0" t="n">
         <v>0.8183</v>
       </c>
-      <c r="C149" t="n" s="0">
+      <c r="C149" s="0" t="n">
         <v>1.1164</v>
       </c>
-      <c r="D149" t="n" s="0">
+      <c r="D149" s="0" t="n">
         <v>0.6632</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n" s="0">
+      <c r="A150" s="7" t="n">
         <v>41788.125</v>
       </c>
-      <c r="B150" t="n" s="0">
+      <c r="B150" s="0" t="n">
         <v>0.8181</v>
       </c>
-      <c r="C150" t="n" s="0">
+      <c r="C150" s="0" t="n">
         <v>1.114</v>
       </c>
-      <c r="D150" t="n" s="0">
+      <c r="D150" s="0" t="n">
         <v>0.6645</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n" s="0">
+      <c r="A151" s="7" t="n">
         <v>41789.125</v>
       </c>
-      <c r="B151" t="n" s="0">
+      <c r="B151" s="0" t="n">
         <v>0.819</v>
       </c>
-      <c r="C151" t="n" s="0">
+      <c r="C151" s="0" t="n">
         <v>1.1141</v>
       </c>
-      <c r="D151" t="n" s="0">
+      <c r="D151" s="0" t="n">
         <v>0.6664</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n" s="0">
+      <c r="A152" s="7" t="n">
         <v>41790.125</v>
       </c>
-      <c r="B152" t="n" s="0">
+      <c r="B152" s="0" t="n">
         <v>0.8191</v>
       </c>
-      <c r="C152" t="n" s="0">
+      <c r="C152" s="0" t="n">
         <v>1.1152</v>
       </c>
-      <c r="D152" t="n" s="0">
+      <c r="D152" s="0" t="n">
         <v>0.6661</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n" s="0">
+      <c r="A153" s="7" t="n">
         <v>41791.125</v>
       </c>
-      <c r="B153" t="n" s="0">
+      <c r="B153" s="0" t="n">
         <v>0.8189</v>
       </c>
-      <c r="C153" t="n" s="0">
+      <c r="C153" s="0" t="n">
         <v>1.1161</v>
       </c>
-      <c r="D153" t="n" s="0">
+      <c r="D153" s="0" t="n">
         <v>0.6661</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n" s="0">
+      <c r="A154" s="7" t="n">
         <v>41792.125</v>
       </c>
-      <c r="B154" t="n" s="0">
+      <c r="B154" s="0" t="n">
         <v>0.8189</v>
       </c>
-      <c r="C154" t="n" s="0">
+      <c r="C154" s="0" t="n">
         <v>1.1161</v>
       </c>
-      <c r="D154" t="n" s="0">
+      <c r="D154" s="0" t="n">
         <v>0.6661</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n" s="0">
+      <c r="A155" s="7" t="n">
         <v>41793.125</v>
       </c>
-      <c r="B155" t="n" s="0">
+      <c r="B155" s="0" t="n">
         <v>0.8188</v>
       </c>
-      <c r="C155" t="n" s="0">
+      <c r="C155" s="0" t="n">
         <v>1.1147</v>
       </c>
-      <c r="D155" t="n" s="0">
+      <c r="D155" s="0" t="n">
         <v>0.6655</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n" s="0">
+      <c r="A156" s="7" t="n">
         <v>41794.125</v>
       </c>
-      <c r="B156" t="n" s="0">
+      <c r="B156" s="0" t="n">
         <v>0.8184</v>
       </c>
-      <c r="C156" t="n" s="0">
+      <c r="C156" s="0" t="n">
         <v>1.114</v>
       </c>
-      <c r="D156" t="n" s="0">
+      <c r="D156" s="0" t="n">
         <v>0.6651</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n" s="0">
+      <c r="A157" s="7" t="n">
         <v>41795.125</v>
       </c>
-      <c r="B157" t="n" s="0">
+      <c r="B157" s="0" t="n">
         <v>0.8189</v>
       </c>
-      <c r="C157" t="n" s="0">
+      <c r="C157" s="0" t="n">
         <v>1.1149</v>
       </c>
-      <c r="D157" t="n" s="0">
+      <c r="D157" s="0" t="n">
         <v>0.6661</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n" s="0">
+      <c r="A158" s="7" t="n">
         <v>41796.125</v>
       </c>
-      <c r="B158" t="n" s="0">
+      <c r="B158" s="0" t="n">
         <v>0.8201</v>
       </c>
-      <c r="C158" t="n" s="0">
+      <c r="C158" s="0" t="n">
         <v>1.1161</v>
       </c>
-      <c r="D158" t="n" s="0">
+      <c r="D158" s="0" t="n">
         <v>0.6657</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n" s="0">
+      <c r="A159" s="7" t="n">
         <v>41797.125</v>
       </c>
-      <c r="B159" t="n" s="0">
+      <c r="B159" s="0" t="n">
         <v>0.8208</v>
       </c>
-      <c r="C159" t="n" s="0">
+      <c r="C159" s="0" t="n">
         <v>1.1203</v>
       </c>
-      <c r="D159" t="n" s="0">
+      <c r="D159" s="0" t="n">
         <v>0.6665</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n" s="0">
+      <c r="A160" s="7" t="n">
         <v>41798.125</v>
       </c>
-      <c r="B160" t="n" s="0">
+      <c r="B160" s="0" t="n">
         <v>0.8199</v>
       </c>
-      <c r="C160" t="n" s="0">
+      <c r="C160" s="0" t="n">
         <v>1.1186</v>
       </c>
-      <c r="D160" t="n" s="0">
+      <c r="D160" s="0" t="n">
         <v>0.6657</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n" s="0">
+      <c r="A161" s="7" t="n">
         <v>41799.125</v>
       </c>
-      <c r="B161" t="n" s="0">
+      <c r="B161" s="0" t="n">
         <v>0.8199</v>
       </c>
-      <c r="C161" t="n" s="0">
+      <c r="C161" s="0" t="n">
         <v>1.1186</v>
       </c>
-      <c r="D161" t="n" s="0">
+      <c r="D161" s="0" t="n">
         <v>0.6657</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n" s="0">
+      <c r="A162" s="7" t="n">
         <v>41800.125</v>
       </c>
-      <c r="B162" t="n" s="0">
+      <c r="B162" s="0" t="n">
         <v>0.8201</v>
       </c>
-      <c r="C162" t="n" s="0">
+      <c r="C162" s="0" t="n">
         <v>1.1172</v>
       </c>
-      <c r="D162" t="n" s="0">
+      <c r="D162" s="0" t="n">
         <v>0.6648</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n" s="0">
+      <c r="A163" s="7" t="n">
         <v>41801.125</v>
       </c>
-      <c r="B163" t="n" s="0">
+      <c r="B163" s="0" t="n">
         <v>0.8203</v>
       </c>
-      <c r="C163" t="n" s="0">
+      <c r="C163" s="0" t="n">
         <v>1.1129</v>
       </c>
-      <c r="D163" t="n" s="0">
+      <c r="D163" s="0" t="n">
         <v>0.663</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n" s="0">
+      <c r="A164" s="7" t="n">
         <v>41802.125</v>
       </c>
-      <c r="B164" t="n" s="0">
+      <c r="B164" s="0" t="n">
         <v>0.821</v>
       </c>
-      <c r="C164" t="n" s="0">
+      <c r="C164" s="0" t="n">
         <v>1.1113</v>
       </c>
-      <c r="D164" t="n" s="0">
+      <c r="D164" s="0" t="n">
         <v>0.6626</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n" s="0">
+      <c r="A165" s="7" t="n">
         <v>41803.125</v>
       </c>
-      <c r="B165" t="n" s="0">
+      <c r="B165" s="0" t="n">
         <v>0.8211</v>
       </c>
-      <c r="C165" t="n" s="0">
+      <c r="C165" s="0" t="n">
         <v>1.1118</v>
       </c>
-      <c r="D165" t="n" s="0">
+      <c r="D165" s="0" t="n">
         <v>0.661</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n" s="0">
+      <c r="A166" s="7" t="n">
         <v>41804.125</v>
       </c>
-      <c r="B166" t="n" s="0">
+      <c r="B166" s="0" t="n">
         <v>0.8212</v>
       </c>
-      <c r="C166" t="n" s="0">
+      <c r="C166" s="0" t="n">
         <v>1.1126</v>
       </c>
-      <c r="D166" t="n" s="0">
+      <c r="D166" s="0" t="n">
         <v>0.6561</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n" s="0">
+      <c r="A167" s="7" t="n">
         <v>41805.125</v>
       </c>
-      <c r="B167" t="n" s="0">
+      <c r="B167" s="0" t="n">
         <v>0.8204</v>
       </c>
-      <c r="C167" t="n" s="0">
+      <c r="C167" s="0" t="n">
         <v>1.1099</v>
       </c>
-      <c r="D167" t="n" s="0">
+      <c r="D167" s="0" t="n">
         <v>0.6545</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n" s="0">
+      <c r="A168" s="7" t="n">
         <v>41806.125</v>
       </c>
-      <c r="B168" t="n" s="0">
+      <c r="B168" s="0" t="n">
         <v>0.8204</v>
       </c>
-      <c r="C168" t="n" s="0">
+      <c r="C168" s="0" t="n">
         <v>1.1099</v>
       </c>
-      <c r="D168" t="n" s="0">
+      <c r="D168" s="0" t="n">
         <v>0.6545</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n" s="0">
+      <c r="A169" s="7" t="n">
         <v>41807.125</v>
       </c>
-      <c r="B169" t="n" s="0">
+      <c r="B169" s="0" t="n">
         <v>0.821</v>
       </c>
-      <c r="C169" t="n" s="0">
+      <c r="C169" s="0" t="n">
         <v>1.1121</v>
       </c>
-      <c r="D169" t="n" s="0">
+      <c r="D169" s="0" t="n">
         <v>0.655</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n" s="0">
+      <c r="A170" s="7" t="n">
         <v>41808.125</v>
       </c>
-      <c r="B170" t="n" s="0">
+      <c r="B170" s="0" t="n">
         <v>0.8207</v>
       </c>
-      <c r="C170" t="n" s="0">
+      <c r="C170" s="0" t="n">
         <v>1.1128</v>
       </c>
-      <c r="D170" t="n" s="0">
+      <c r="D170" s="0" t="n">
         <v>0.6558</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n" s="0">
+      <c r="A171" s="7" t="n">
         <v>41809.125</v>
       </c>
-      <c r="B171" t="n" s="0">
+      <c r="B171" s="0" t="n">
         <v>0.8208</v>
       </c>
-      <c r="C171" t="n" s="0">
+      <c r="C171" s="0" t="n">
         <v>1.1129</v>
       </c>
-      <c r="D171" t="n" s="0">
+      <c r="D171" s="0" t="n">
         <v>0.6563</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n" s="0">
+      <c r="A172" s="7" t="n">
         <v>41810.125</v>
       </c>
-      <c r="B172" t="n" s="0">
+      <c r="B172" s="0" t="n">
         <v>0.8214</v>
       </c>
-      <c r="C172" t="n" s="0">
+      <c r="C172" s="0" t="n">
         <v>1.1178</v>
       </c>
-      <c r="D172" t="n" s="0">
+      <c r="D172" s="0" t="n">
         <v>0.6569</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n" s="0">
+      <c r="A173" s="7" t="n">
         <v>41811.125</v>
       </c>
-      <c r="B173" t="n" s="0">
+      <c r="B173" s="0" t="n">
         <v>0.8216</v>
       </c>
-      <c r="C173" t="n" s="0">
+      <c r="C173" s="0" t="n">
         <v>1.1176</v>
       </c>
-      <c r="D173" t="n" s="0">
+      <c r="D173" s="0" t="n">
         <v>0.6561</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n" s="0">
+      <c r="A174" s="7" t="n">
         <v>41812.125</v>
       </c>
-      <c r="B174" t="n" s="0">
+      <c r="B174" s="0" t="n">
         <v>0.821</v>
       </c>
-      <c r="C174" t="n" s="0">
+      <c r="C174" s="0" t="n">
         <v>1.117</v>
       </c>
-      <c r="D174" t="n" s="0">
+      <c r="D174" s="0" t="n">
         <v>0.6564</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n" s="0">
+      <c r="A175" s="7" t="n">
         <v>41813.125</v>
       </c>
-      <c r="B175" t="n" s="0">
+      <c r="B175" s="0" t="n">
         <v>0.821</v>
       </c>
-      <c r="C175" t="n" s="0">
+      <c r="C175" s="0" t="n">
         <v>1.117</v>
       </c>
-      <c r="D175" t="n" s="0">
+      <c r="D175" s="0" t="n">
         <v>0.6564</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n" s="0">
+      <c r="A176" s="7" t="n">
         <v>41814.125</v>
       </c>
-      <c r="B176" t="n" s="0">
+      <c r="B176" s="0" t="n">
         <v>0.8216</v>
       </c>
-      <c r="C176" t="n" s="0">
+      <c r="C176" s="0" t="n">
         <v>1.117</v>
       </c>
-      <c r="D176" t="n" s="0">
+      <c r="D176" s="0" t="n">
         <v>0.6562</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n" s="0">
+      <c r="A177" s="7" t="n">
         <v>41815.125</v>
       </c>
-      <c r="B177" t="n" s="0">
+      <c r="B177" s="0" t="n">
         <v>0.8218</v>
       </c>
-      <c r="C177" t="n" s="0">
+      <c r="C177" s="0" t="n">
         <v>1.118</v>
       </c>
-      <c r="D177" t="n" s="0">
+      <c r="D177" s="0" t="n">
         <v>0.6575</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n" s="0">
+      <c r="A178" s="7" t="n">
         <v>41816.125</v>
       </c>
-      <c r="B178" t="n" s="0">
+      <c r="B178" s="0" t="n">
         <v>0.822</v>
       </c>
-      <c r="C178" t="n" s="0">
+      <c r="C178" s="0" t="n">
         <v>1.1193</v>
       </c>
-      <c r="D178" t="n" s="0">
+      <c r="D178" s="0" t="n">
         <v>0.6593</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n" s="0">
+      <c r="A179" s="7" t="n">
         <v>41817.083333333336</v>
       </c>
-      <c r="B179" t="n" s="0">
+      <c r="B179" s="0" t="n">
         <v>0.8219</v>
       </c>
-      <c r="C179" t="n" s="0">
+      <c r="C179" s="0" t="n">
         <v>1.1194</v>
       </c>
-      <c r="D179" t="n" s="0">
+      <c r="D179" s="0" t="n">
         <v>0.6583</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n" s="0">
+      <c r="A180" s="7" t="n">
         <v>41818.083333333336</v>
       </c>
-      <c r="B180" t="n" s="0">
+      <c r="B180" s="0" t="n">
         <v>0.8223</v>
       </c>
-      <c r="C180" t="n" s="0">
+      <c r="C180" s="0" t="n">
         <v>1.1204</v>
       </c>
-      <c r="D180" t="n" s="0">
+      <c r="D180" s="0" t="n">
         <v>0.658</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n" s="0">
+      <c r="A181" s="7" t="n">
         <v>41819.083333333336</v>
       </c>
-      <c r="B181" t="n" s="0">
+      <c r="B181" s="0" t="n">
         <v>0.8222</v>
       </c>
-      <c r="C181" t="n" s="0">
+      <c r="C181" s="0" t="n">
         <v>1.1216</v>
       </c>
-      <c r="D181" t="n" s="0">
+      <c r="D181" s="0" t="n">
         <v>0.6586</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n" s="0">
+      <c r="A182" s="7" t="n">
         <v>41820.083333333336</v>
       </c>
-      <c r="B182" t="n" s="0">
+      <c r="B182" s="0" t="n">
         <v>0.8222</v>
       </c>
-      <c r="C182" t="n" s="0">
+      <c r="C182" s="0" t="n">
         <v>1.1216</v>
       </c>
-      <c r="D182" t="n" s="0">
+      <c r="D182" s="0" t="n">
         <v>0.6586</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n" s="0">
+      <c r="A183" s="7" t="n">
         <v>41821.083333333336</v>
       </c>
-      <c r="B183" t="n" s="0">
+      <c r="B183" s="0" t="n">
         <v>0.8228</v>
       </c>
-      <c r="C183" t="n" s="0">
+      <c r="C183" s="0" t="n">
         <v>1.1239</v>
       </c>
-      <c r="D183" t="n" s="0">
+      <c r="D183" s="0" t="n">
         <v>0.6591</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n" s="0">
+      <c r="A184" s="7" t="n">
         <v>41822.083333333336</v>
       </c>
-      <c r="B184" t="n" s="0">
+      <c r="B184" s="0" t="n">
         <v>0.8236</v>
       </c>
-      <c r="C184" t="n" s="0">
+      <c r="C184" s="0" t="n">
         <v>1.1272</v>
       </c>
-      <c r="D184" t="n" s="0">
+      <c r="D184" s="0" t="n">
         <v>0.6582</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n" s="0">
+      <c r="A185" s="7" t="n">
         <v>41823.083333333336</v>
       </c>
-      <c r="B185" t="n" s="0">
+      <c r="B185" s="0" t="n">
         <v>0.8236</v>
       </c>
-      <c r="C185" t="n" s="0">
+      <c r="C185" s="0" t="n">
         <v>1.1256</v>
       </c>
-      <c r="D185" t="n" s="0">
+      <c r="D185" s="0" t="n">
         <v>0.6561</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n" s="0">
+      <c r="A186" s="7" t="n">
         <v>41824.083333333336</v>
       </c>
-      <c r="B186" t="n" s="0">
+      <c r="B186" s="0" t="n">
         <v>0.8231</v>
       </c>
-      <c r="C186" t="n" s="0">
+      <c r="C186" s="0" t="n">
         <v>1.1225</v>
       </c>
-      <c r="D186" t="n" s="0">
+      <c r="D186" s="0" t="n">
         <v>0.6545</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n" s="0">
+      <c r="A187" s="7" t="n">
         <v>41825.083333333336</v>
       </c>
-      <c r="B187" t="n" s="0">
+      <c r="B187" s="0" t="n">
         <v>0.8224</v>
       </c>
-      <c r="C187" t="n" s="0">
+      <c r="C187" s="0" t="n">
         <v>1.1183</v>
       </c>
-      <c r="D187" t="n" s="0">
+      <c r="D187" s="0" t="n">
         <v>0.6519</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n" s="0">
+      <c r="A188" s="7" t="n">
         <v>41826.083333333336</v>
       </c>
-      <c r="B188" t="n" s="0">
+      <c r="B188" s="0" t="n">
         <v>0.822</v>
       </c>
-      <c r="C188" t="n" s="0">
+      <c r="C188" s="0" t="n">
         <v>1.1179</v>
       </c>
-      <c r="D188" t="n" s="0">
+      <c r="D188" s="0" t="n">
         <v>0.6513</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n" s="0">
+      <c r="A189" s="7" t="n">
         <v>41827.083333333336</v>
       </c>
-      <c r="B189" t="n" s="0">
+      <c r="B189" s="0" t="n">
         <v>0.8221</v>
       </c>
-      <c r="C189" t="n" s="0">
+      <c r="C189" s="0" t="n">
         <v>1.1174</v>
       </c>
-      <c r="D189" t="n" s="0">
+      <c r="D189" s="0" t="n">
         <v>0.6514</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n" s="0">
+      <c r="A190" s="7" t="n">
         <v>41828.083333333336</v>
       </c>
-      <c r="B190" t="n" s="0">
+      <c r="B190" s="0" t="n">
         <v>0.8224</v>
       </c>
-      <c r="C190" t="n" s="0">
+      <c r="C190" s="0" t="n">
         <v>1.1179</v>
       </c>
-      <c r="D190" t="n" s="0">
+      <c r="D190" s="0" t="n">
         <v>0.6523</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n" s="0">
+      <c r="A191" s="7" t="n">
         <v>41829.083333333336</v>
       </c>
-      <c r="B191" t="n" s="0">
+      <c r="B191" s="0" t="n">
         <v>0.8227</v>
       </c>
-      <c r="C191" t="n" s="0">
+      <c r="C191" s="0" t="n">
         <v>1.1192</v>
       </c>
-      <c r="D191" t="n" s="0">
+      <c r="D191" s="0" t="n">
         <v>0.6535</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n" s="0">
+      <c r="A192" s="7" t="n">
         <v>41830.083333333336</v>
       </c>
-      <c r="B192" t="n" s="0">
+      <c r="B192" s="0" t="n">
         <v>0.8226</v>
       </c>
-      <c r="C192" t="n" s="0">
+      <c r="C192" s="0" t="n">
         <v>1.1203</v>
       </c>
-      <c r="D192" t="n" s="0">
+      <c r="D192" s="0" t="n">
         <v>0.654</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n" s="0">
+      <c r="A193" s="7" t="n">
         <v>41831.083333333336</v>
       </c>
-      <c r="B193" t="n" s="0">
+      <c r="B193" s="0" t="n">
         <v>0.8231</v>
       </c>
-      <c r="C193" t="n" s="0">
+      <c r="C193" s="0" t="n">
         <v>1.1215</v>
       </c>
-      <c r="D193" t="n" s="0">
+      <c r="D193" s="0" t="n">
         <v>0.6544</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n" s="0">
+      <c r="A194" s="7" t="n">
         <v>41832.083333333336</v>
       </c>
-      <c r="B194" t="n" s="0">
+      <c r="B194" s="0" t="n">
         <v>0.8235</v>
       </c>
-      <c r="C194" t="n" s="0">
+      <c r="C194" s="0" t="n">
         <v>1.1203</v>
       </c>
-      <c r="D194" t="n" s="0">
+      <c r="D194" s="0" t="n">
         <v>0.6542</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n" s="0">
+      <c r="A195" s="7" t="n">
         <v>41833.083333333336</v>
       </c>
-      <c r="B195" t="n" s="0">
+      <c r="B195" s="0" t="n">
         <v>0.8234</v>
       </c>
-      <c r="C195" t="n" s="0">
+      <c r="C195" s="0" t="n">
         <v>1.1199</v>
       </c>
-      <c r="D195" t="n" s="0">
+      <c r="D195" s="0" t="n">
         <v>0.6545</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n" s="0">
+      <c r="A196" s="7" t="n">
         <v>41834.083333333336</v>
       </c>
-      <c r="B196" t="n" s="0">
+      <c r="B196" s="0" t="n">
         <v>0.8234</v>
       </c>
-      <c r="C196" t="n" s="0">
+      <c r="C196" s="0" t="n">
         <v>1.1199</v>
       </c>
-      <c r="D196" t="n" s="0">
+      <c r="D196" s="0" t="n">
         <v>0.6545</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n" s="0">
+      <c r="A197" s="7" t="n">
         <v>41835.083333333336</v>
       </c>
-      <c r="B197" t="n" s="0">
+      <c r="B197" s="0" t="n">
         <v>0.8235</v>
       </c>
-      <c r="C197" t="n" s="0">
+      <c r="C197" s="0" t="n">
         <v>1.1211</v>
       </c>
-      <c r="D197" t="n" s="0">
+      <c r="D197" s="0" t="n">
         <v>0.6554</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n" s="0">
+      <c r="A198" s="7" t="n">
         <v>41836.083333333336</v>
       </c>
-      <c r="B198" t="n" s="0">
+      <c r="B198" s="0" t="n">
         <v>0.8231</v>
       </c>
-      <c r="C198" t="n" s="0">
+      <c r="C198" s="0" t="n">
         <v>1.1195</v>
       </c>
-      <c r="D198" t="n" s="0">
+      <c r="D198" s="0" t="n">
         <v>0.654</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n" s="0">
+      <c r="A199" s="7" t="n">
         <v>41837.083333333336</v>
       </c>
-      <c r="B199" t="n" s="0">
+      <c r="B199" s="0" t="n">
         <v>0.8227</v>
       </c>
-      <c r="C199" t="n" s="0">
+      <c r="C199" s="0" t="n">
         <v>1.1144</v>
       </c>
-      <c r="D199" t="n" s="0">
+      <c r="D199" s="0" t="n">
         <v>0.6504</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n" s="0">
+      <c r="A200" s="7" t="n">
         <v>41838.083333333336</v>
       </c>
-      <c r="B200" t="n" s="0">
+      <c r="B200" s="0" t="n">
         <v>0.8233</v>
       </c>
-      <c r="C200" t="n" s="0">
+      <c r="C200" s="0" t="n">
         <v>1.1137</v>
       </c>
-      <c r="D200" t="n" s="0">
+      <c r="D200" s="0" t="n">
         <v>0.6505</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n" s="0">
+      <c r="A201" s="7" t="n">
         <v>41839.083333333336</v>
       </c>
-      <c r="B201" t="n" s="0">
+      <c r="B201" s="0" t="n">
         <v>0.8234</v>
       </c>
-      <c r="C201" t="n" s="0">
+      <c r="C201" s="0" t="n">
         <v>1.1134</v>
       </c>
-      <c r="D201" t="n" s="0">
+      <c r="D201" s="0" t="n">
         <v>0.6516</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n" s="0">
+      <c r="A202" s="7" t="n">
         <v>41840.083333333336</v>
       </c>
-      <c r="B202" t="n" s="0">
+      <c r="B202" s="0" t="n">
         <v>0.8228</v>
       </c>
-      <c r="C202" t="n" s="0">
+      <c r="C202" s="0" t="n">
         <v>1.1128</v>
       </c>
-      <c r="D202" t="n" s="0">
+      <c r="D202" s="0" t="n">
         <v>0.6514</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n" s="0">
+      <c r="A203" s="7" t="n">
         <v>41841.083333333336</v>
       </c>
-      <c r="B203" t="n" s="0">
+      <c r="B203" s="0" t="n">
         <v>0.8229</v>
       </c>
-      <c r="C203" t="n" s="0">
+      <c r="C203" s="0" t="n">
         <v>1.1121</v>
       </c>
-      <c r="D203" t="n" s="0">
+      <c r="D203" s="0" t="n">
         <v>0.6511</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n" s="0">
+      <c r="A204" s="7" t="n">
         <v>41842.083333333336</v>
       </c>
-      <c r="B204" t="n" s="0">
+      <c r="B204" s="0" t="n">
         <v>0.8231</v>
       </c>
-      <c r="C204" t="n" s="0">
+      <c r="C204" s="0" t="n">
         <v>1.1134</v>
       </c>
-      <c r="D204" t="n" s="0">
+      <c r="D204" s="0" t="n">
         <v>0.6519</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n" s="0">
+      <c r="A205" s="7" t="n">
         <v>41843.083333333336</v>
       </c>
-      <c r="B205" t="n" s="0">
+      <c r="B205" s="0" t="n">
         <v>0.823</v>
       </c>
-      <c r="C205" t="n" s="0">
+      <c r="C205" s="0" t="n">
         <v>1.1108</v>
       </c>
-      <c r="D205" t="n" s="0">
+      <c r="D205" s="0" t="n">
         <v>0.6508</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n" s="0">
+      <c r="A206" s="7" t="n">
         <v>41844.083333333336</v>
       </c>
-      <c r="B206" t="n" s="0">
+      <c r="B206" s="0" t="n">
         <v>0.823</v>
       </c>
-      <c r="C206" t="n" s="0">
+      <c r="C206" s="0" t="n">
         <v>1.1081</v>
       </c>
-      <c r="D206" t="n" s="0">
+      <c r="D206" s="0" t="n">
         <v>0.6498</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n" s="0">
+      <c r="A207" s="7" t="n">
         <v>41845.083333333336</v>
       </c>
-      <c r="B207" t="n" s="0">
+      <c r="B207" s="0" t="n">
         <v>0.823</v>
       </c>
-      <c r="C207" t="n" s="0">
+      <c r="C207" s="0" t="n">
         <v>1.1081</v>
       </c>
-      <c r="D207" t="n" s="0">
+      <c r="D207" s="0" t="n">
         <v>0.6513</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n" s="0">
+      <c r="A208" s="7" t="n">
         <v>41846.083333333336</v>
       </c>
-      <c r="B208" t="n" s="0">
+      <c r="B208" s="0" t="n">
         <v>0.8228</v>
       </c>
-      <c r="C208" t="n" s="0">
+      <c r="C208" s="0" t="n">
         <v>1.1068</v>
       </c>
-      <c r="D208" t="n" s="0">
+      <c r="D208" s="0" t="n">
         <v>0.6517</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n" s="0">
+      <c r="A209" s="7" t="n">
         <v>41847.083333333336</v>
       </c>
-      <c r="B209" t="n" s="0">
+      <c r="B209" s="0" t="n">
         <v>0.8227</v>
       </c>
-      <c r="C209" t="n" s="0">
+      <c r="C209" s="0" t="n">
         <v>1.1047</v>
       </c>
-      <c r="D209" t="n" s="0">
+      <c r="D209" s="0" t="n">
         <v>0.6507</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n" s="0">
+      <c r="A210" s="7" t="n">
         <v>41848.083333333336</v>
       </c>
-      <c r="B210" t="n" s="0">
+      <c r="B210" s="0" t="n">
         <v>0.8227</v>
       </c>
-      <c r="C210" t="n" s="0">
+      <c r="C210" s="0" t="n">
         <v>1.1047</v>
       </c>
-      <c r="D210" t="n" s="0">
+      <c r="D210" s="0" t="n">
         <v>0.6507</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n" s="0">
+      <c r="A211" s="7" t="n">
         <v>41849.083333333336</v>
       </c>
-      <c r="B211" t="n" s="0">
+      <c r="B211" s="0" t="n">
         <v>0.8229</v>
       </c>
-      <c r="C211" t="n" s="0">
+      <c r="C211" s="0" t="n">
         <v>1.1056</v>
       </c>
-      <c r="D211" t="n" s="0">
+      <c r="D211" s="0" t="n">
         <v>0.651</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n" s="0">
+      <c r="A212" s="7" t="n">
         <v>41850.083333333336</v>
       </c>
-      <c r="B212" t="n" s="0">
+      <c r="B212" s="0" t="n">
         <v>0.8228</v>
       </c>
-      <c r="C212" t="n" s="0">
+      <c r="C212" s="0" t="n">
         <v>1.1047</v>
       </c>
-      <c r="D212" t="n" s="0">
+      <c r="D212" s="0" t="n">
         <v>0.6512</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n" s="0">
+      <c r="A213" s="7" t="n">
         <v>41851.083333333336</v>
       </c>
-      <c r="B213" t="n" s="0">
+      <c r="B213" s="0" t="n">
         <v>0.822</v>
       </c>
-      <c r="C213" t="n" s="0">
+      <c r="C213" s="0" t="n">
         <v>1.1013</v>
       </c>
-      <c r="D213" t="n" s="0">
+      <c r="D213" s="0" t="n">
         <v>0.6505</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n" s="0">
+      <c r="A214" s="7" t="n">
         <v>41852.125</v>
       </c>
-      <c r="B214" t="n" s="0">
+      <c r="B214" s="0" t="n">
         <v>0.8217</v>
       </c>
-      <c r="C214" t="n" s="0">
+      <c r="C214" s="0" t="n">
         <v>1.1003</v>
       </c>
-      <c r="D214" t="n" s="0">
+      <c r="D214" s="0" t="n">
         <v>0.6512</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n" s="0">
+      <c r="A215" s="7" t="n">
         <v>41853.125</v>
       </c>
-      <c r="B215" t="n" s="0">
+      <c r="B215" s="0" t="n">
         <v>0.822</v>
       </c>
-      <c r="C215" t="n" s="0">
+      <c r="C215" s="0" t="n">
         <v>1.1016</v>
       </c>
-      <c r="D215" t="n" s="0">
+      <c r="D215" s="0" t="n">
         <v>0.6535</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n" s="0">
+      <c r="A216" s="7" t="n">
         <v>41854.125</v>
       </c>
-      <c r="B216" t="n" s="0">
+      <c r="B216" s="0" t="n">
         <v>0.8218</v>
       </c>
-      <c r="C216" t="n" s="0">
+      <c r="C216" s="0" t="n">
         <v>1.1034</v>
       </c>
-      <c r="D216" t="n" s="0">
+      <c r="D216" s="0" t="n">
         <v>0.6559</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n" s="0">
+      <c r="A217" s="7" t="n">
         <v>41855.125</v>
       </c>
-      <c r="B217" t="n" s="0">
+      <c r="B217" s="0" t="n">
         <v>0.8218</v>
       </c>
-      <c r="C217" t="n" s="0">
+      <c r="C217" s="0" t="n">
         <v>1.1034</v>
       </c>
-      <c r="D217" t="n" s="0">
+      <c r="D217" s="0" t="n">
         <v>0.6559</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n" s="0">
+      <c r="A218" s="7" t="n">
         <v>41856.125</v>
       </c>
-      <c r="B218" t="n" s="0">
+      <c r="B218" s="0" t="n">
         <v>0.8219</v>
       </c>
-      <c r="C218" t="n" s="0">
+      <c r="C218" s="0" t="n">
         <v>1.1032</v>
       </c>
-      <c r="D218" t="n" s="0">
+      <c r="D218" s="0" t="n">
         <v>0.6553</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n" s="0">
+      <c r="A219" s="7" t="n">
         <v>41857.125</v>
       </c>
-      <c r="B219" t="n" s="0">
+      <c r="B219" s="0" t="n">
         <v>0.8217</v>
       </c>
-      <c r="C219" t="n" s="0">
+      <c r="C219" s="0" t="n">
         <v>1.1009</v>
       </c>
-      <c r="D219" t="n" s="0">
+      <c r="D219" s="0" t="n">
         <v>0.6527</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n" s="0">
+      <c r="A220" s="7" t="n">
         <v>41858.125</v>
       </c>
-      <c r="B220" t="n" s="0">
+      <c r="B220" s="0" t="n">
         <v>0.8227</v>
       </c>
-      <c r="C220" t="n" s="0">
+      <c r="C220" s="0" t="n">
         <v>1.0995</v>
       </c>
-      <c r="D220" t="n" s="0">
+      <c r="D220" s="0" t="n">
         <v>0.6523</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n" s="0">
+      <c r="A221" s="7" t="n">
         <v>41859.125</v>
       </c>
-      <c r="B221" t="n" s="0">
+      <c r="B221" s="0" t="n">
         <v>0.8232</v>
       </c>
-      <c r="C221" t="n" s="0">
+      <c r="C221" s="0" t="n">
         <v>1.1008</v>
       </c>
-      <c r="D221" t="n" s="0">
+      <c r="D221" s="0" t="n">
         <v>0.6535</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n" s="0">
+      <c r="A222" s="7" t="n">
         <v>41860.125</v>
       </c>
-      <c r="B222" t="n" s="0">
+      <c r="B222" s="0" t="n">
         <v>0.8239</v>
       </c>
-      <c r="C222" t="n" s="0">
+      <c r="C222" s="0" t="n">
         <v>1.1027</v>
       </c>
-      <c r="D222" t="n" s="0">
+      <c r="D222" s="0" t="n">
         <v>0.6562</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n" s="0">
+      <c r="A223" s="7" t="n">
         <v>41861.125</v>
       </c>
-      <c r="B223" t="n" s="0">
+      <c r="B223" s="0" t="n">
         <v>0.8234</v>
       </c>
-      <c r="C223" t="n" s="0">
+      <c r="C223" s="0" t="n">
         <v>1.1042</v>
       </c>
-      <c r="D223" t="n" s="0">
+      <c r="D223" s="0" t="n">
         <v>0.6581</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n" s="0">
+      <c r="A224" s="7" t="n">
         <v>41862.125</v>
       </c>
-      <c r="B224" t="n" s="0">
+      <c r="B224" s="0" t="n">
         <v>0.8234</v>
       </c>
-      <c r="C224" t="n" s="0">
+      <c r="C224" s="0" t="n">
         <v>1.104</v>
       </c>
-      <c r="D224" t="n" s="0">
+      <c r="D224" s="0" t="n">
         <v>0.658</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n" s="0">
+      <c r="A225" s="7" t="n">
         <v>41863.125</v>
       </c>
-      <c r="B225" t="n" s="0">
+      <c r="B225" s="0" t="n">
         <v>0.8239</v>
       </c>
-      <c r="C225" t="n" s="0">
+      <c r="C225" s="0" t="n">
         <v>1.1035</v>
       </c>
-      <c r="D225" t="n" s="0">
+      <c r="D225" s="0" t="n">
         <v>0.6575</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n" s="0">
+      <c r="A226" s="7" t="n">
         <v>41864.125</v>
       </c>
-      <c r="B226" t="n" s="0">
+      <c r="B226" s="0" t="n">
         <v>0.8239</v>
       </c>
-      <c r="C226" t="n" s="0">
+      <c r="C226" s="0" t="n">
         <v>1.1011</v>
       </c>
-      <c r="D226" t="n" s="0">
+      <c r="D226" s="0" t="n">
         <v>0.656</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n" s="0">
+      <c r="A227" s="7" t="n">
         <v>41865.125</v>
       </c>
-      <c r="B227" t="n" s="0">
+      <c r="B227" s="0" t="n">
         <v>0.8241</v>
       </c>
-      <c r="C227" t="n" s="0">
+      <c r="C227" s="0" t="n">
         <v>1.1016</v>
       </c>
-      <c r="D227" t="n" s="0">
+      <c r="D227" s="0" t="n">
         <v>0.6573</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n" s="0">
+      <c r="A228" s="7" t="n">
         <v>41866.125</v>
       </c>
-      <c r="B228" t="n" s="0">
+      <c r="B228" s="0" t="n">
         <v>0.8248</v>
       </c>
-      <c r="C228" t="n" s="0">
+      <c r="C228" s="0" t="n">
         <v>1.1027</v>
       </c>
-      <c r="D228" t="n" s="0">
+      <c r="D228" s="0" t="n">
         <v>0.661</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n" s="0">
+      <c r="A229" s="7" t="n">
         <v>41867.125</v>
       </c>
-      <c r="B229" t="n" s="0">
+      <c r="B229" s="0" t="n">
         <v>0.8257</v>
       </c>
-      <c r="C229" t="n" s="0">
+      <c r="C229" s="0" t="n">
         <v>1.1045</v>
       </c>
-      <c r="D229" t="n" s="0">
+      <c r="D229" s="0" t="n">
         <v>0.6618</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n" s="0">
+      <c r="A230" s="7" t="n">
         <v>41868.125</v>
       </c>
-      <c r="B230" t="n" s="0">
+      <c r="B230" s="0" t="n">
         <v>0.8265</v>
       </c>
-      <c r="C230" t="n" s="0">
+      <c r="C230" s="0" t="n">
         <v>1.1071</v>
       </c>
-      <c r="D230" t="n" s="0">
+      <c r="D230" s="0" t="n">
         <v>0.6633</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n" s="0">
+      <c r="A231" s="7" t="n">
         <v>41869.125</v>
       </c>
-      <c r="B231" t="n" s="0">
+      <c r="B231" s="0" t="n">
         <v>0.8265</v>
       </c>
-      <c r="C231" t="n" s="0">
+      <c r="C231" s="0" t="n">
         <v>1.1071</v>
       </c>
-      <c r="D231" t="n" s="0">
+      <c r="D231" s="0" t="n">
         <v>0.6633</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n" s="0">
+      <c r="A232" s="7" t="n">
         <v>41870.125</v>
       </c>
-      <c r="B232" t="n" s="0">
+      <c r="B232" s="0" t="n">
         <v>0.8261</v>
       </c>
-      <c r="C232" t="n" s="0">
+      <c r="C232" s="0" t="n">
         <v>1.1054</v>
       </c>
-      <c r="D232" t="n" s="0">
+      <c r="D232" s="0" t="n">
         <v>0.6609</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n" s="0">
+      <c r="A233" s="7" t="n">
         <v>41871.125</v>
       </c>
-      <c r="B233" t="n" s="0">
+      <c r="B233" s="0" t="n">
         <v>0.8257</v>
       </c>
-      <c r="C233" t="n" s="0">
+      <c r="C233" s="0" t="n">
         <v>1.1017</v>
       </c>
-      <c r="D233" t="n" s="0">
+      <c r="D233" s="0" t="n">
         <v>0.6608</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n" s="0">
+      <c r="A234" s="7" t="n">
         <v>41872.125</v>
       </c>
-      <c r="B234" t="n" s="0">
+      <c r="B234" s="0" t="n">
         <v>0.8258</v>
       </c>
-      <c r="C234" t="n" s="0">
+      <c r="C234" s="0" t="n">
         <v>1.0979</v>
       </c>
-      <c r="D234" t="n" s="0">
+      <c r="D234" s="0" t="n">
         <v>0.6604</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n" s="0">
+      <c r="A235" s="7" t="n">
         <v>41873.125</v>
       </c>
-      <c r="B235" t="n" s="0">
+      <c r="B235" s="0" t="n">
         <v>0.8257</v>
       </c>
-      <c r="C235" t="n" s="0">
+      <c r="C235" s="0" t="n">
         <v>1.0953</v>
       </c>
-      <c r="D235" t="n" s="0">
+      <c r="D235" s="0" t="n">
         <v>0.6604</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n" s="0">
+      <c r="A236" s="7" t="n">
         <v>41874.125</v>
       </c>
-      <c r="B236" t="n" s="0">
+      <c r="B236" s="0" t="n">
         <v>0.8262</v>
       </c>
-      <c r="C236" t="n" s="0">
+      <c r="C236" s="0" t="n">
         <v>1.0963</v>
       </c>
-      <c r="D236" t="n" s="0">
+      <c r="D236" s="0" t="n">
         <v>0.6612</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n" s="0">
+      <c r="A237" s="7" t="n">
         <v>41875.125</v>
       </c>
-      <c r="B237" t="n" s="0">
+      <c r="B237" s="0" t="n">
         <v>0.8261</v>
       </c>
-      <c r="C237" t="n" s="0">
+      <c r="C237" s="0" t="n">
         <v>1.0941</v>
       </c>
-      <c r="D237" t="n" s="0">
+      <c r="D237" s="0" t="n">
         <v>0.66</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n" s="0">
+      <c r="A238" s="7" t="n">
         <v>41876.125</v>
       </c>
-      <c r="B238" t="n" s="0">
+      <c r="B238" s="0" t="n">
         <v>0.8261</v>
       </c>
-      <c r="C238" t="n" s="0">
+      <c r="C238" s="0" t="n">
         <v>1.0941</v>
       </c>
-      <c r="D238" t="n" s="0">
+      <c r="D238" s="0" t="n">
         <v>0.66</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n" s="0">
+      <c r="A239" s="7" t="n">
         <v>41877.125</v>
       </c>
-      <c r="B239" t="n" s="0">
+      <c r="B239" s="0" t="n">
         <v>0.8272</v>
       </c>
-      <c r="C239" t="n" s="0">
+      <c r="C239" s="0" t="n">
         <v>1.0918</v>
       </c>
-      <c r="D239" t="n" s="0">
+      <c r="D239" s="0" t="n">
         <v>0.6588</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n" s="0">
+      <c r="A240" s="7" t="n">
         <v>41878.125</v>
       </c>
-      <c r="B240" t="n" s="0">
+      <c r="B240" s="0" t="n">
         <v>0.8277</v>
       </c>
-      <c r="C240" t="n" s="0">
+      <c r="C240" s="0" t="n">
         <v>1.092</v>
       </c>
-      <c r="D240" t="n" s="0">
+      <c r="D240" s="0" t="n">
         <v>0.6588</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n" s="0">
+      <c r="A241" s="7" t="n">
         <v>41879.125</v>
       </c>
-      <c r="B241" t="n" s="0">
+      <c r="B241" s="0" t="n">
         <v>0.8281</v>
       </c>
-      <c r="C241" t="n" s="0">
+      <c r="C241" s="0" t="n">
         <v>1.0913</v>
       </c>
-      <c r="D241" t="n" s="0">
+      <c r="D241" s="0" t="n">
         <v>0.6587</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n" s="0">
+      <c r="A242" s="7" t="n">
         <v>41880.125</v>
       </c>
-      <c r="B242" t="n" s="0">
+      <c r="B242" s="0" t="n">
         <v>0.8288</v>
       </c>
-      <c r="C242" t="n" s="0">
+      <c r="C242" s="0" t="n">
         <v>1.0934</v>
       </c>
-      <c r="D242" t="n" s="0">
+      <c r="D242" s="0" t="n">
         <v>0.6593</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n" s="0">
+      <c r="A243" s="7" t="n">
         <v>41881.125</v>
       </c>
-      <c r="B243" t="n" s="0">
+      <c r="B243" s="0" t="n">
         <v>0.8289</v>
       </c>
-      <c r="C243" t="n" s="0">
+      <c r="C243" s="0" t="n">
         <v>1.0918</v>
       </c>
-      <c r="D243" t="n" s="0">
+      <c r="D243" s="0" t="n">
         <v>0.6582</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n" s="0">
+      <c r="A244" s="7" t="n">
         <v>41882.125</v>
       </c>
-      <c r="B244" t="n" s="0">
+      <c r="B244" s="0" t="n">
         <v>0.8287</v>
       </c>
-      <c r="C244" t="n" s="0">
+      <c r="C244" s="0" t="n">
         <v>1.0885</v>
       </c>
-      <c r="D244" t="n" s="0">
+      <c r="D244" s="0" t="n">
         <v>0.6557</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n" s="0">
+      <c r="A245" s="7" t="n">
         <v>41883.125</v>
       </c>
-      <c r="B245" t="n" s="0">
+      <c r="B245" s="0" t="n">
         <v>0.8289</v>
       </c>
-      <c r="C245" t="n" s="0">
+      <c r="C245" s="0" t="n">
         <v>1.0887</v>
       </c>
-      <c r="D245" t="n" s="0">
+      <c r="D245" s="0" t="n">
         <v>0.6558</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n" s="0">
+      <c r="A246" s="7" t="n">
         <v>41884.125</v>
       </c>
-      <c r="B246" t="n" s="0">
+      <c r="B246" s="0" t="n">
         <v>0.8286</v>
       </c>
-      <c r="C246" t="n" s="0">
+      <c r="C246" s="0" t="n">
         <v>1.088</v>
       </c>
-      <c r="D246" t="n" s="0">
+      <c r="D246" s="0" t="n">
         <v>0.6551</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n" s="0">
+      <c r="A247" s="7" t="n">
         <v>41885.125</v>
       </c>
-      <c r="B247" t="n" s="0">
+      <c r="B247" s="0" t="n">
         <v>0.8282</v>
       </c>
-      <c r="C247" t="n" s="0">
+      <c r="C247" s="0" t="n">
         <v>1.0869</v>
       </c>
-      <c r="D247" t="n" s="0">
+      <c r="D247" s="0" t="n">
         <v>0.6569</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n" s="0">
+      <c r="A248" s="7" t="n">
         <v>41886.125</v>
       </c>
-      <c r="B248" t="n" s="0">
+      <c r="B248" s="0" t="n">
         <v>0.8283</v>
       </c>
-      <c r="C248" t="n" s="0">
+      <c r="C248" s="0" t="n">
         <v>1.0882</v>
       </c>
-      <c r="D248" t="n" s="0">
+      <c r="D248" s="0" t="n">
         <v>0.6609</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n" s="0">
+      <c r="A249" s="7" t="n">
         <v>41887.125</v>
       </c>
-      <c r="B249" t="n" s="0">
+      <c r="B249" s="0" t="n">
         <v>0.8287</v>
       </c>
-      <c r="C249" t="n" s="0">
+      <c r="C249" s="0" t="n">
         <v>1.0838</v>
       </c>
-      <c r="D249" t="n" s="0">
+      <c r="D249" s="0" t="n">
         <v>0.6598</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n" s="0">
+      <c r="A250" s="7" t="n">
         <v>41888.125</v>
       </c>
-      <c r="B250" t="n" s="0">
+      <c r="B250" s="0" t="n">
         <v>0.829</v>
       </c>
-      <c r="C250" t="n" s="0">
+      <c r="C250" s="0" t="n">
         <v>1.0733</v>
       </c>
-      <c r="D250" t="n" s="0">
+      <c r="D250" s="0" t="n">
         <v>0.6579</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n" s="0">
+      <c r="A251" s="7" t="n">
         <v>41889.125</v>
       </c>
-      <c r="B251" t="n" s="0">
+      <c r="B251" s="0" t="n">
         <v>0.829</v>
       </c>
-      <c r="C251" t="n" s="0">
+      <c r="C251" s="0" t="n">
         <v>1.0738</v>
       </c>
-      <c r="D251" t="n" s="0">
+      <c r="D251" s="0" t="n">
         <v>0.6576</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n" s="0">
+      <c r="A252" s="7" t="n">
         <v>41890.125</v>
       </c>
-      <c r="B252" t="n" s="0">
+      <c r="B252" s="0" t="n">
         <v>0.829</v>
       </c>
-      <c r="C252" t="n" s="0">
+      <c r="C252" s="0" t="n">
         <v>1.0738</v>
       </c>
-      <c r="D252" t="n" s="0">
+      <c r="D252" s="0" t="n">
         <v>0.6576</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n" s="0">
+      <c r="A253" s="7" t="n">
         <v>41891.125</v>
       </c>
-      <c r="B253" t="n" s="0">
+      <c r="B253" s="0" t="n">
         <v>0.8289</v>
       </c>
-      <c r="C253" t="n" s="0">
+      <c r="C253" s="0" t="n">
         <v>1.0725</v>
       </c>
-      <c r="D253" t="n" s="0">
+      <c r="D253" s="0" t="n">
         <v>0.6634</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n" s="0">
+      <c r="A254" s="7" t="n">
         <v>41892.125</v>
       </c>
-      <c r="B254" t="n" s="0">
+      <c r="B254" s="0" t="n">
         <v>0.8289</v>
       </c>
-      <c r="C254" t="n" s="0">
+      <c r="C254" s="0" t="n">
         <v>1.0689</v>
       </c>
-      <c r="D254" t="n" s="0">
+      <c r="D254" s="0" t="n">
         <v>0.664</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n" s="0">
+      <c r="A255" s="7" t="n">
         <v>41893.125</v>
       </c>
-      <c r="B255" t="n" s="0">
+      <c r="B255" s="0" t="n">
         <v>0.8275</v>
       </c>
-      <c r="C255" t="n" s="0">
+      <c r="C255" s="0" t="n">
         <v>1.0696</v>
       </c>
-      <c r="D255" t="n" s="0">
+      <c r="D255" s="0" t="n">
         <v>0.6629</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n" s="0">
+      <c r="A256" s="7" t="n">
         <v>41894.125</v>
       </c>
-      <c r="B256" t="n" s="0">
+      <c r="B256" s="0" t="n">
         <v>0.8266</v>
       </c>
-      <c r="C256" t="n" s="0">
+      <c r="C256" s="0" t="n">
         <v>1.0682</v>
       </c>
-      <c r="D256" t="n" s="0">
+      <c r="D256" s="0" t="n">
         <v>0.6585</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n" s="0">
+      <c r="A257" s="7" t="n">
         <v>41895.125</v>
       </c>
-      <c r="B257" t="n" s="0">
+      <c r="B257" s="0" t="n">
         <v>0.8268</v>
       </c>
-      <c r="C257" t="n" s="0">
+      <c r="C257" s="0" t="n">
         <v>1.0692</v>
       </c>
-      <c r="D257" t="n" s="0">
+      <c r="D257" s="0" t="n">
         <v>0.6581</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n" s="0">
+      <c r="A258" s="7" t="n">
         <v>41896.125</v>
       </c>
-      <c r="B258" t="n" s="0">
+      <c r="B258" s="0" t="n">
         <v>0.8262</v>
       </c>
-      <c r="C258" t="n" s="0">
+      <c r="C258" s="0" t="n">
         <v>1.0709</v>
       </c>
-      <c r="D258" t="n" s="0">
+      <c r="D258" s="0" t="n">
         <v>0.6583</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n" s="0">
+      <c r="A259" s="7" t="n">
         <v>41897.125</v>
       </c>
-      <c r="B259" t="n" s="0">
+      <c r="B259" s="0" t="n">
         <v>0.8262</v>
       </c>
-      <c r="C259" t="n" s="0">
+      <c r="C259" s="0" t="n">
         <v>1.0709</v>
       </c>
-      <c r="D259" t="n" s="0">
+      <c r="D259" s="0" t="n">
         <v>0.6583</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n" s="0">
+      <c r="A260" s="7" t="n">
         <v>41898.125</v>
       </c>
-      <c r="B260" t="n" s="0">
+      <c r="B260" s="0" t="n">
         <v>0.8263</v>
       </c>
-      <c r="C260" t="n" s="0">
+      <c r="C260" s="0" t="n">
         <v>1.0696</v>
       </c>
-      <c r="D260" t="n" s="0">
+      <c r="D260" s="0" t="n">
         <v>0.6585</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n" s="0">
+      <c r="A261" s="7" t="n">
         <v>41899.125</v>
       </c>
-      <c r="B261" t="n" s="0">
+      <c r="B261" s="0" t="n">
         <v>0.8268</v>
       </c>
-      <c r="C261" t="n" s="0">
+      <c r="C261" s="0" t="n">
         <v>1.0706</v>
       </c>
-      <c r="D261" t="n" s="0">
+      <c r="D261" s="0" t="n">
         <v>0.6598</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n" s="0">
+      <c r="A262" s="7" t="n">
         <v>41900.125</v>
       </c>
-      <c r="B262" t="n" s="0">
+      <c r="B262" s="0" t="n">
         <v>0.8264</v>
       </c>
-      <c r="C262" t="n" s="0">
+      <c r="C262" s="0" t="n">
         <v>1.0701</v>
       </c>
-      <c r="D262" t="n" s="0">
+      <c r="D262" s="0" t="n">
         <v>0.6567</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n" s="0">
+      <c r="A263" s="7" t="n">
         <v>41901.125</v>
       </c>
-      <c r="B263" t="n" s="0">
+      <c r="B263" s="0" t="n">
         <v>0.8271</v>
       </c>
-      <c r="C263" t="n" s="0">
+      <c r="C263" s="0" t="n">
         <v>1.0655</v>
       </c>
-      <c r="D263" t="n" s="0">
+      <c r="D263" s="0" t="n">
         <v>0.6529</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n" s="0">
+      <c r="A264" s="7" t="n">
         <v>41902.125</v>
       </c>
-      <c r="B264" t="n" s="0">
+      <c r="B264" s="0" t="n">
         <v>0.8284</v>
       </c>
-      <c r="C264" t="n" s="0">
+      <c r="C264" s="0" t="n">
         <v>1.067</v>
       </c>
-      <c r="D264" t="n" s="0">
+      <c r="D264" s="0" t="n">
         <v>0.6506</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n" s="0">
+      <c r="A265" s="7" t="n">
         <v>41903.125</v>
       </c>
-      <c r="B265" t="n" s="0">
+      <c r="B265" s="0" t="n">
         <v>0.8282</v>
       </c>
-      <c r="C265" t="n" s="0">
+      <c r="C265" s="0" t="n">
         <v>1.0625</v>
       </c>
-      <c r="D265" t="n" s="0">
+      <c r="D265" s="0" t="n">
         <v>0.6523</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n" s="0">
+      <c r="A266" s="7" t="n">
         <v>41904.125</v>
       </c>
-      <c r="B266" t="n" s="0">
+      <c r="B266" s="0" t="n">
         <v>0.8282</v>
       </c>
-      <c r="C266" t="n" s="0">
+      <c r="C266" s="0" t="n">
         <v>1.0625</v>
       </c>
-      <c r="D266" t="n" s="0">
+      <c r="D266" s="0" t="n">
         <v>0.6523</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n" s="0">
+      <c r="A267" s="7" t="n">
         <v>41905.125</v>
       </c>
-      <c r="B267" t="n" s="0">
+      <c r="B267" s="0" t="n">
         <v>0.8283</v>
       </c>
-      <c r="C267" t="n" s="0">
+      <c r="C267" s="0" t="n">
         <v>1.064</v>
       </c>
-      <c r="D267" t="n" s="0">
+      <c r="D267" s="0" t="n">
         <v>0.6511</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n" s="0">
+      <c r="A268" s="7" t="n">
         <v>41906.125</v>
       </c>
-      <c r="B268" t="n" s="0">
+      <c r="B268" s="0" t="n">
         <v>0.8282</v>
       </c>
-      <c r="C268" t="n" s="0">
+      <c r="C268" s="0" t="n">
         <v>1.0651</v>
       </c>
-      <c r="D268" t="n" s="0">
+      <c r="D268" s="0" t="n">
         <v>0.6504</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n" s="0">
+      <c r="A269" s="7" t="n">
         <v>41907.125</v>
       </c>
-      <c r="B269" t="n" s="0">
+      <c r="B269" s="0" t="n">
         <v>0.828</v>
       </c>
-      <c r="C269" t="n" s="0">
+      <c r="C269" s="0" t="n">
         <v>1.0621</v>
       </c>
-      <c r="D269" t="n" s="0">
+      <c r="D269" s="0" t="n">
         <v>0.6484</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n" s="0">
+      <c r="A270" s="7" t="n">
         <v>41908.083333333336</v>
       </c>
-      <c r="B270" t="n" s="0">
+      <c r="B270" s="0" t="n">
         <v>0.8279</v>
       </c>
-      <c r="C270" t="n" s="0">
+      <c r="C270" s="0" t="n">
         <v>1.0556</v>
       </c>
-      <c r="D270" t="n" s="0">
+      <c r="D270" s="0" t="n">
         <v>0.647</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n" s="0">
+      <c r="A271" s="7" t="n">
         <v>41909.083333333336</v>
       </c>
-      <c r="B271" t="n" s="0">
+      <c r="B271" s="0" t="n">
         <v>0.8284</v>
       </c>
-      <c r="C271" t="n" s="0">
+      <c r="C271" s="0" t="n">
         <v>1.0543</v>
       </c>
-      <c r="D271" t="n" s="0">
+      <c r="D271" s="0" t="n">
         <v>0.6471</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n" s="0">
+      <c r="A272" s="7" t="n">
         <v>41910.083333333336</v>
       </c>
-      <c r="B272" t="n" s="0">
+      <c r="B272" s="0" t="n">
         <v>0.8285</v>
       </c>
-      <c r="C272" t="n" s="0">
+      <c r="C272" s="0" t="n">
         <v>1.0509</v>
       </c>
-      <c r="D272" t="n" s="0">
+      <c r="D272" s="0" t="n">
         <v>0.6464</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n" s="0">
+      <c r="A273" s="7" t="n">
         <v>41911.083333333336</v>
       </c>
-      <c r="B273" t="n" s="0">
+      <c r="B273" s="0" t="n">
         <v>0.8285</v>
       </c>
-      <c r="C273" t="n" s="0">
+      <c r="C273" s="0" t="n">
         <v>1.0509</v>
       </c>
-      <c r="D273" t="n" s="0">
+      <c r="D273" s="0" t="n">
         <v>0.6464</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n" s="0">
+      <c r="A274" s="7" t="n">
         <v>41912.083333333336</v>
       </c>
-      <c r="B274" t="n" s="0">
+      <c r="B274" s="0" t="n">
         <v>0.8285</v>
       </c>
-      <c r="C274" t="n" s="0">
+      <c r="C274" s="0" t="n">
         <v>1.051</v>
       </c>
-      <c r="D274" t="n" s="0">
+      <c r="D274" s="0" t="n">
         <v>0.6472</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n" s="0">
+      <c r="A275" s="7" t="n">
         <v>41913.083333333336</v>
       </c>
-      <c r="B275" t="n" s="0">
+      <c r="B275" s="0" t="n">
         <v>0.8288</v>
       </c>
-      <c r="C275" t="n" s="0">
+      <c r="C275" s="0" t="n">
         <v>1.0485</v>
       </c>
-      <c r="D275" t="n" s="0">
+      <c r="D275" s="0" t="n">
         <v>0.6461</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n" s="0">
+      <c r="A276" s="7" t="n">
         <v>41914.083333333336</v>
       </c>
-      <c r="B276" t="n" s="0">
+      <c r="B276" s="0" t="n">
         <v>0.8288</v>
       </c>
-      <c r="C276" t="n" s="0">
+      <c r="C276" s="0" t="n">
         <v>1.0454</v>
       </c>
-      <c r="D276" t="n" s="0">
+      <c r="D276" s="0" t="n">
         <v>0.6454</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n" s="0">
+      <c r="A277" s="7" t="n">
         <v>41915.083333333336</v>
       </c>
-      <c r="B277" t="n" s="0">
+      <c r="B277" s="0" t="n">
         <v>0.828</v>
       </c>
-      <c r="C277" t="n" s="0">
+      <c r="C277" s="0" t="n">
         <v>1.047</v>
       </c>
-      <c r="D277" t="n" s="0">
+      <c r="D277" s="0" t="n">
         <v>0.6473</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n" s="0">
+      <c r="A278" s="7" t="n">
         <v>41916.083333333336</v>
       </c>
-      <c r="B278" t="n" s="0">
+      <c r="B278" s="0" t="n">
         <v>0.8269</v>
       </c>
-      <c r="C278" t="n" s="0">
+      <c r="C278" s="0" t="n">
         <v>1.042</v>
       </c>
-      <c r="D278" t="n" s="0">
+      <c r="D278" s="0" t="n">
         <v>0.6485</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n" s="0">
+      <c r="A279" s="7" t="n">
         <v>41917.083333333336</v>
       </c>
-      <c r="B279" t="n" s="0">
+      <c r="B279" s="0" t="n">
         <v>0.8256</v>
       </c>
-      <c r="C279" t="n" s="0">
+      <c r="C279" s="0" t="n">
         <v>1.033</v>
       </c>
-      <c r="D279" t="n" s="0">
+      <c r="D279" s="0" t="n">
         <v>0.6469</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n" s="0">
+      <c r="A280" s="7" t="n">
         <v>41918.083333333336</v>
       </c>
-      <c r="B280" t="n" s="0">
+      <c r="B280" s="0" t="n">
         <v>0.8256</v>
       </c>
-      <c r="C280" t="n" s="0">
+      <c r="C280" s="0" t="n">
         <v>1.033</v>
       </c>
-      <c r="D280" t="n" s="0">
+      <c r="D280" s="0" t="n">
         <v>0.6469</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n" s="0">
+      <c r="A281" s="7" t="n">
         <v>41919.083333333336</v>
       </c>
-      <c r="B281" t="n" s="0">
+      <c r="B281" s="0" t="n">
         <v>0.8252</v>
       </c>
-      <c r="C281" t="n" s="0">
+      <c r="C281" s="0" t="n">
         <v>1.0357</v>
       </c>
-      <c r="D281" t="n" s="0">
+      <c r="D281" s="0" t="n">
         <v>0.6475</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n" s="0">
+      <c r="A282" s="7" t="n">
         <v>41920.083333333336</v>
       </c>
-      <c r="B282" t="n" s="0">
+      <c r="B282" s="0" t="n">
         <v>0.8249</v>
       </c>
-      <c r="C282" t="n" s="0">
+      <c r="C282" s="0" t="n">
         <v>1.042</v>
       </c>
-      <c r="D282" t="n" s="0">
+      <c r="D282" s="0" t="n">
         <v>0.6482</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n" s="0">
+      <c r="A283" s="7" t="n">
         <v>41921.083333333336</v>
       </c>
-      <c r="B283" t="n" s="0">
+      <c r="B283" s="0" t="n">
         <v>0.8247</v>
       </c>
-      <c r="C283" t="n" s="0">
+      <c r="C283" s="0" t="n">
         <v>1.0445</v>
       </c>
-      <c r="D283" t="n" s="0">
+      <c r="D283" s="0" t="n">
         <v>0.6495</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n" s="0">
+      <c r="A284" s="7" t="n">
         <v>41922.083333333336</v>
       </c>
-      <c r="B284" t="n" s="0">
+      <c r="B284" s="0" t="n">
         <v>0.8254</v>
       </c>
-      <c r="C284" t="n" s="0">
+      <c r="C284" s="0" t="n">
         <v>1.0507</v>
       </c>
-      <c r="D284" t="n" s="0">
+      <c r="D284" s="0" t="n">
         <v>0.6499</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n" s="0">
+      <c r="A285" s="7" t="n">
         <v>41923.083333333336</v>
       </c>
-      <c r="B285" t="n" s="0">
+      <c r="B285" s="0" t="n">
         <v>0.8263</v>
       </c>
-      <c r="C285" t="n" s="0">
+      <c r="C285" s="0" t="n">
         <v>1.0465</v>
       </c>
-      <c r="D285" t="n" s="0">
+      <c r="D285" s="0" t="n">
         <v>0.6508</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n" s="0">
+      <c r="A286" s="7" t="n">
         <v>41924.083333333336</v>
       </c>
-      <c r="B286" t="n" s="0">
+      <c r="B286" s="0" t="n">
         <v>0.8266</v>
       </c>
-      <c r="C286" t="n" s="0">
+      <c r="C286" s="0" t="n">
         <v>1.0442</v>
       </c>
-      <c r="D286" t="n" s="0">
+      <c r="D286" s="0" t="n">
         <v>0.6494</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n" s="0">
+      <c r="A287" s="7" t="n">
         <v>41925.083333333336</v>
       </c>
-      <c r="B287" t="n" s="0">
+      <c r="B287" s="0" t="n">
         <v>0.8266</v>
       </c>
-      <c r="C287" t="n" s="0">
+      <c r="C287" s="0" t="n">
         <v>1.0442</v>
       </c>
-      <c r="D287" t="n" s="0">
+      <c r="D287" s="0" t="n">
         <v>0.6494</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n" s="0">
+      <c r="A288" s="7" t="n">
         <v>41926.083333333336</v>
       </c>
-      <c r="B288" t="n" s="0">
+      <c r="B288" s="0" t="n">
         <v>0.8274</v>
       </c>
-      <c r="C288" t="n" s="0">
+      <c r="C288" s="0" t="n">
         <v>1.0487</v>
       </c>
-      <c r="D288" t="n" s="0">
+      <c r="D288" s="0" t="n">
         <v>0.6518</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="n" s="0">
+      <c r="A289" s="7" t="n">
         <v>41927.083333333336</v>
       </c>
-      <c r="B289" t="n" s="0">
+      <c r="B289" s="0" t="n">
         <v>0.8277</v>
       </c>
-      <c r="C289" t="n" s="0">
+      <c r="C289" s="0" t="n">
         <v>1.0502</v>
       </c>
-      <c r="D289" t="n" s="0">
+      <c r="D289" s="0" t="n">
         <v>0.6566</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="n" s="0">
+      <c r="A290" s="7" t="n">
         <v>41928.083333333336</v>
       </c>
-      <c r="B290" t="n" s="0">
+      <c r="B290" s="0" t="n">
         <v>0.8283</v>
       </c>
-      <c r="C290" t="n" s="0">
+      <c r="C290" s="0" t="n">
         <v>1.0515</v>
       </c>
-      <c r="D290" t="n" s="0">
+      <c r="D290" s="0" t="n">
         <v>0.6603</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n" s="0">
+      <c r="A291" s="7" t="n">
         <v>41929.083333333336</v>
       </c>
-      <c r="B291" t="n" s="0">
+      <c r="B291" s="0" t="n">
         <v>0.8285</v>
       </c>
-      <c r="C291" t="n" s="0">
+      <c r="C291" s="0" t="n">
         <v>1.0604</v>
       </c>
-      <c r="D291" t="n" s="0">
+      <c r="D291" s="0" t="n">
         <v>0.6623</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n" s="0">
+      <c r="A292" s="7" t="n">
         <v>41930.083333333336</v>
       </c>
-      <c r="B292" t="n" s="0">
+      <c r="B292" s="0" t="n">
         <v>0.8281</v>
       </c>
-      <c r="C292" t="n" s="0">
+      <c r="C292" s="0" t="n">
         <v>1.0594</v>
       </c>
-      <c r="D292" t="n" s="0">
+      <c r="D292" s="0" t="n">
         <v>0.6586</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n" s="0">
+      <c r="A293" s="7" t="n">
         <v>41931.083333333336</v>
       </c>
-      <c r="B293" t="n" s="0">
+      <c r="B293" s="0" t="n">
         <v>0.8279</v>
       </c>
-      <c r="C293" t="n" s="0">
+      <c r="C293" s="0" t="n">
         <v>1.0562</v>
       </c>
-      <c r="D293" t="n" s="0">
+      <c r="D293" s="0" t="n">
         <v>0.6563</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="n" s="0">
+      <c r="A294" s="7" t="n">
         <v>41932.083333333336</v>
       </c>
-      <c r="B294" t="n" s="0">
+      <c r="B294" s="0" t="n">
         <v>0.8279</v>
       </c>
-      <c r="C294" t="n" s="0">
+      <c r="C294" s="0" t="n">
         <v>1.0562</v>
       </c>
-      <c r="D294" t="n" s="0">
+      <c r="D294" s="0" t="n">
         <v>0.6563</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n" s="0">
+      <c r="A295" s="7" t="n">
         <v>41933.083333333336</v>
       </c>
-      <c r="B295" t="n" s="0">
+      <c r="B295" s="0" t="n">
         <v>0.8285</v>
       </c>
-      <c r="C295" t="n" s="0">
+      <c r="C295" s="0" t="n">
         <v>1.0579</v>
       </c>
-      <c r="D295" t="n" s="0">
+      <c r="D295" s="0" t="n">
         <v>0.6561</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="n" s="0">
+      <c r="A296" s="7" t="n">
         <v>41934.083333333336</v>
       </c>
-      <c r="B296" t="n" s="0">
+      <c r="B296" s="0" t="n">
         <v>0.8287</v>
       </c>
-      <c r="C296" t="n" s="0">
+      <c r="C296" s="0" t="n">
         <v>1.0586</v>
       </c>
-      <c r="D296" t="n" s="0">
+      <c r="D296" s="0" t="n">
         <v>0.6553</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n" s="0">
+      <c r="A297" s="7" t="n">
         <v>41935.083333333336</v>
       </c>
-      <c r="B297" t="n" s="0">
+      <c r="B297" s="0" t="n">
         <v>0.8288</v>
       </c>
-      <c r="C297" t="n" s="0">
+      <c r="C297" s="0" t="n">
         <v>1.052</v>
       </c>
-      <c r="D297" t="n" s="0">
+      <c r="D297" s="0" t="n">
         <v>0.6542</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n" s="0">
+      <c r="A298" s="7" t="n">
         <v>41936.083333333336</v>
       </c>
-      <c r="B298" t="n" s="0">
+      <c r="B298" s="0" t="n">
         <v>0.8288</v>
       </c>
-      <c r="C298" t="n" s="0">
+      <c r="C298" s="0" t="n">
         <v>1.0483</v>
       </c>
-      <c r="D298" t="n" s="0">
+      <c r="D298" s="0" t="n">
         <v>0.6537</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n" s="0">
+      <c r="A299" s="7" t="n">
         <v>41937.083333333336</v>
       </c>
-      <c r="B299" t="n" s="0">
+      <c r="B299" s="0" t="n">
         <v>0.8289</v>
       </c>
-      <c r="C299" t="n" s="0">
+      <c r="C299" s="0" t="n">
         <v>1.0493</v>
       </c>
-      <c r="D299" t="n" s="0">
+      <c r="D299" s="0" t="n">
         <v>0.6537</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n" s="0">
+      <c r="A300" s="7" t="n">
         <v>41938.083333333336</v>
       </c>
-      <c r="B300" t="n" s="0">
+      <c r="B300" s="0" t="n">
         <v>0.8289</v>
       </c>
-      <c r="C300" t="n" s="0">
+      <c r="C300" s="0" t="n">
         <v>1.0503</v>
       </c>
-      <c r="D300" t="n" s="0">
+      <c r="D300" s="0" t="n">
         <v>0.6527</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n" s="0">
+      <c r="A301" s="7" t="n">
         <v>41939.083333333336</v>
       </c>
-      <c r="B301" t="n" s="0">
+      <c r="B301" s="0" t="n">
         <v>0.8289</v>
       </c>
-      <c r="C301" t="n" s="0">
+      <c r="C301" s="0" t="n">
         <v>1.0503</v>
       </c>
-      <c r="D301" t="n" s="0">
+      <c r="D301" s="0" t="n">
         <v>0.6527</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="n" s="0">
+      <c r="A302" s="7" t="n">
         <v>41940.083333333336</v>
       </c>
-      <c r="B302" t="n" s="0">
+      <c r="B302" s="0" t="n">
         <v>0.8291</v>
       </c>
-      <c r="C302" t="n" s="0">
+      <c r="C302" s="0" t="n">
         <v>1.0524</v>
       </c>
-      <c r="D302" t="n" s="0">
+      <c r="D302" s="0" t="n">
         <v>0.6533</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n" s="0">
+      <c r="A303" s="7" t="n">
         <v>41941.083333333336</v>
       </c>
-      <c r="B303" t="n" s="0">
+      <c r="B303" s="0" t="n">
         <v>0.8291</v>
       </c>
-      <c r="C303" t="n" s="0">
+      <c r="C303" s="0" t="n">
         <v>1.0543</v>
       </c>
-      <c r="D303" t="n" s="0">
+      <c r="D303" s="0" t="n">
         <v>0.6535</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n" s="0">
+      <c r="A304" s="7" t="n">
         <v>41942.083333333336</v>
       </c>
-      <c r="B304" t="n" s="0">
+      <c r="B304" s="0" t="n">
         <v>0.8292</v>
       </c>
-      <c r="C304" t="n" s="0">
+      <c r="C304" s="0" t="n">
         <v>1.0553</v>
       </c>
-      <c r="D304" t="n" s="0">
+      <c r="D304" s="0" t="n">
         <v>0.6547</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n" s="0">
+      <c r="A305" s="7" t="n">
         <v>41943.083333333336</v>
       </c>
-      <c r="B305" t="n" s="0">
+      <c r="B305" s="0" t="n">
         <v>0.8292</v>
       </c>
-      <c r="C305" t="n" s="0">
+      <c r="C305" s="0" t="n">
         <v>1.0455</v>
       </c>
-      <c r="D305" t="n" s="0">
+      <c r="D305" s="0" t="n">
         <v>0.6536</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n" s="0">
+      <c r="A306" s="7" t="n">
         <v>41944.083333333336</v>
       </c>
-      <c r="B306" t="n" s="0">
+      <c r="B306" s="0" t="n">
         <v>0.8291</v>
       </c>
-      <c r="C306" t="n" s="0">
+      <c r="C306" s="0" t="n">
         <v>1.0419</v>
       </c>
-      <c r="D306" t="n" s="0">
+      <c r="D306" s="0" t="n">
         <v>0.6516</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n" s="0">
+      <c r="A307" s="7" t="n">
         <v>41945.083333333336</v>
       </c>
-      <c r="B307" t="n" s="0">
+      <c r="B307" s="0" t="n">
         <v>0.8293</v>
       </c>
-      <c r="C307" t="n" s="0">
+      <c r="C307" s="0" t="n">
         <v>1.0386</v>
       </c>
-      <c r="D307" t="n" s="0">
+      <c r="D307" s="0" t="n">
         <v>0.6492</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n" s="0">
+      <c r="A308" s="7" t="n">
         <v>41946.083333333336</v>
       </c>
-      <c r="B308" t="n" s="0">
+      <c r="B308" s="0" t="n">
         <v>0.8293</v>
       </c>
-      <c r="C308" t="n" s="0">
+      <c r="C308" s="0" t="n">
         <v>1.0386</v>
       </c>
-      <c r="D308" t="n" s="0">
+      <c r="D308" s="0" t="n">
         <v>0.6492</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n" s="0">
+      <c r="A309" s="7" t="n">
         <v>41947.083333333336</v>
       </c>
-      <c r="B309" t="n" s="0">
+      <c r="B309" s="0" t="n">
         <v>0.8293</v>
       </c>
-      <c r="C309" t="n" s="0">
+      <c r="C309" s="0" t="n">
         <v>1.036</v>
       </c>
-      <c r="D309" t="n" s="0">
+      <c r="D309" s="0" t="n">
         <v>0.6483</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n" s="0">
+      <c r="A310" s="7" t="n">
         <v>41948.083333333336</v>
       </c>
-      <c r="B310" t="n" s="0">
+      <c r="B310" s="0" t="n">
         <v>0.8295</v>
       </c>
-      <c r="C310" t="n" s="0">
+      <c r="C310" s="0" t="n">
         <v>1.0384</v>
       </c>
-      <c r="D310" t="n" s="0">
+      <c r="D310" s="0" t="n">
         <v>0.6493</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n" s="0">
+      <c r="A311" s="7" t="n">
         <v>41949.083333333336</v>
       </c>
-      <c r="B311" t="n" s="0">
+      <c r="B311" s="0" t="n">
         <v>0.8304</v>
       </c>
-      <c r="C311" t="n" s="0">
+      <c r="C311" s="0" t="n">
         <v>1.0393</v>
       </c>
-      <c r="D311" t="n" s="0">
+      <c r="D311" s="0" t="n">
         <v>0.6508</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n" s="0">
+      <c r="A312" s="7" t="n">
         <v>41950.083333333336</v>
       </c>
-      <c r="B312" t="n" s="0">
+      <c r="B312" s="0" t="n">
         <v>0.8305</v>
       </c>
-      <c r="C312" t="n" s="0">
+      <c r="C312" s="0" t="n">
         <v>1.0357</v>
       </c>
-      <c r="D312" t="n" s="0">
+      <c r="D312" s="0" t="n">
         <v>0.6499</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n" s="0">
+      <c r="A313" s="7" t="n">
         <v>41951.083333333336</v>
       </c>
-      <c r="B313" t="n" s="0">
+      <c r="B313" s="0" t="n">
         <v>0.8305</v>
       </c>
-      <c r="C313" t="n" s="0">
+      <c r="C313" s="0" t="n">
         <v>1.0297</v>
       </c>
-      <c r="D313" t="n" s="0">
+      <c r="D313" s="0" t="n">
         <v>0.6502</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="n" s="0">
+      <c r="A314" s="7" t="n">
         <v>41952.083333333336</v>
       </c>
-      <c r="B314" t="n" s="0">
+      <c r="B314" s="0" t="n">
         <v>0.8308</v>
       </c>
-      <c r="C314" t="n" s="0">
+      <c r="C314" s="0" t="n">
         <v>1.0347</v>
       </c>
-      <c r="D314" t="n" s="0">
+      <c r="D314" s="0" t="n">
         <v>0.6518</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="n" s="0">
+      <c r="A315" s="7" t="n">
         <v>41953.083333333336</v>
       </c>
-      <c r="B315" t="n" s="0">
+      <c r="B315" s="0" t="n">
         <v>0.8308</v>
       </c>
-      <c r="C315" t="n" s="0">
+      <c r="C315" s="0" t="n">
         <v>1.0347</v>
       </c>
-      <c r="D315" t="n" s="0">
+      <c r="D315" s="0" t="n">
         <v>0.6518</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="n" s="0">
+      <c r="A316" s="7" t="n">
         <v>41954.083333333336</v>
       </c>
-      <c r="B316" t="n" s="0">
+      <c r="B316" s="0" t="n">
         <v>0.8312</v>
       </c>
-      <c r="C316" t="n" s="0">
+      <c r="C316" s="0" t="n">
         <v>1.036</v>
       </c>
-      <c r="D316" t="n" s="0">
+      <c r="D316" s="0" t="n">
         <v>0.6522</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="n" s="0">
+      <c r="A317" s="7" t="n">
         <v>41955.083333333336</v>
       </c>
-      <c r="B317" t="n" s="0">
+      <c r="B317" s="0" t="n">
         <v>0.8314</v>
       </c>
-      <c r="C317" t="n" s="0">
+      <c r="C317" s="0" t="n">
         <v>1.0335</v>
       </c>
-      <c r="D317" t="n" s="0">
+      <c r="D317" s="0" t="n">
         <v>0.6516</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="n" s="0">
+      <c r="A318" s="7" t="n">
         <v>41956.083333333336</v>
       </c>
-      <c r="B318" t="n" s="0">
+      <c r="B318" s="0" t="n">
         <v>0.8313</v>
       </c>
-      <c r="C318" t="n" s="0">
+      <c r="C318" s="0" t="n">
         <v>1.036</v>
       </c>
-      <c r="D318" t="n" s="0">
+      <c r="D318" s="0" t="n">
         <v>0.6527</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="n" s="0">
+      <c r="A319" s="7" t="n">
         <v>41957.083333333336</v>
       </c>
-      <c r="B319" t="n" s="0">
+      <c r="B319" s="0" t="n">
         <v>0.8318</v>
       </c>
-      <c r="C319" t="n" s="0">
+      <c r="C319" s="0" t="n">
         <v>1.0361</v>
       </c>
-      <c r="D319" t="n" s="0">
+      <c r="D319" s="0" t="n">
         <v>0.6576</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="n" s="0">
+      <c r="A320" s="7" t="n">
         <v>41958.083333333336</v>
       </c>
-      <c r="B320" t="n" s="0">
+      <c r="B320" s="0" t="n">
         <v>0.832</v>
       </c>
-      <c r="C320" t="n" s="0">
+      <c r="C320" s="0" t="n">
         <v>1.0373</v>
       </c>
-      <c r="D320" t="n" s="0">
+      <c r="D320" s="0" t="n">
         <v>0.6618</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n" s="0">
+      <c r="A321" s="7" t="n">
         <v>41959.083333333336</v>
       </c>
-      <c r="B321" t="n" s="0">
+      <c r="B321" s="0" t="n">
         <v>0.8323</v>
       </c>
-      <c r="C321" t="n" s="0">
+      <c r="C321" s="0" t="n">
         <v>1.0423</v>
       </c>
-      <c r="D321" t="n" s="0">
+      <c r="D321" s="0" t="n">
         <v>0.6651</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n" s="0">
+      <c r="A322" s="7" t="n">
         <v>41960.083333333336</v>
       </c>
-      <c r="B322" t="n" s="0">
+      <c r="B322" s="0" t="n">
         <v>0.8323</v>
       </c>
-      <c r="C322" t="n" s="0">
+      <c r="C322" s="0" t="n">
         <v>1.0423</v>
       </c>
-      <c r="D322" t="n" s="0">
+      <c r="D322" s="0" t="n">
         <v>0.6651</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n" s="0">
+      <c r="A323" s="7" t="n">
         <v>41961.083333333336</v>
       </c>
-      <c r="B323" t="n" s="0">
+      <c r="B323" s="0" t="n">
         <v>0.8323</v>
       </c>
-      <c r="C323" t="n" s="0">
+      <c r="C323" s="0" t="n">
         <v>1.0408</v>
       </c>
-      <c r="D323" t="n" s="0">
+      <c r="D323" s="0" t="n">
         <v>0.6643</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n" s="0">
+      <c r="A324" s="7" t="n">
         <v>41962.083333333336</v>
       </c>
-      <c r="B324" t="n" s="0">
+      <c r="B324" s="0" t="n">
         <v>0.8324</v>
       </c>
-      <c r="C324" t="n" s="0">
+      <c r="C324" s="0" t="n">
         <v>1.0401</v>
       </c>
-      <c r="D324" t="n" s="0">
+      <c r="D324" s="0" t="n">
         <v>0.6646</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n" s="0">
+      <c r="A325" s="7" t="n">
         <v>41963.083333333336</v>
       </c>
-      <c r="B325" t="n" s="0">
+      <c r="B325" s="0" t="n">
         <v>0.8324</v>
       </c>
-      <c r="C325" t="n" s="0">
+      <c r="C325" s="0" t="n">
         <v>1.0433</v>
       </c>
-      <c r="D325" t="n" s="0">
+      <c r="D325" s="0" t="n">
         <v>0.6669</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n" s="0">
+      <c r="A326" s="7" t="n">
         <v>41964.083333333336</v>
       </c>
-      <c r="B326" t="n" s="0">
+      <c r="B326" s="0" t="n">
         <v>0.8323</v>
       </c>
-      <c r="C326" t="n" s="0">
+      <c r="C326" s="0" t="n">
         <v>1.0437</v>
       </c>
-      <c r="D326" t="n" s="0">
+      <c r="D326" s="0" t="n">
         <v>0.6656</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n" s="0">
+      <c r="A327" s="7" t="n">
         <v>41965.083333333336</v>
       </c>
-      <c r="B327" t="n" s="0">
+      <c r="B327" s="0" t="n">
         <v>0.8318</v>
       </c>
-      <c r="C327" t="n" s="0">
+      <c r="C327" s="0" t="n">
         <v>1.0381</v>
       </c>
-      <c r="D327" t="n" s="0">
+      <c r="D327" s="0" t="n">
         <v>0.6622</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n" s="0">
+      <c r="A328" s="7" t="n">
         <v>41966.083333333336</v>
       </c>
-      <c r="B328" t="n" s="0">
+      <c r="B328" s="0" t="n">
         <v>0.8321</v>
       </c>
-      <c r="C328" t="n" s="0">
+      <c r="C328" s="0" t="n">
         <v>1.0305</v>
       </c>
-      <c r="D328" t="n" s="0">
+      <c r="D328" s="0" t="n">
         <v>0.6581</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="n" s="0">
+      <c r="A329" s="7" t="n">
         <v>41967.083333333336</v>
       </c>
-      <c r="B329" t="n" s="0">
+      <c r="B329" s="0" t="n">
         <v>0.8321</v>
       </c>
-      <c r="C329" t="n" s="0">
+      <c r="C329" s="0" t="n">
         <v>1.0304</v>
       </c>
-      <c r="D329" t="n" s="0">
+      <c r="D329" s="0" t="n">
         <v>0.6581</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n" s="0">
+      <c r="A330" s="7" t="n">
         <v>41968.083333333336</v>
       </c>
-      <c r="B330" t="n" s="0">
+      <c r="B330" s="0" t="n">
         <v>0.8315</v>
       </c>
-      <c r="C330" t="n" s="0">
+      <c r="C330" s="0" t="n">
         <v>1.0314</v>
       </c>
-      <c r="D330" t="n" s="0">
+      <c r="D330" s="0" t="n">
         <v>0.6582</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n" s="0">
+      <c r="A331" s="7" t="n">
         <v>41969.083333333336</v>
       </c>
-      <c r="B331" t="n" s="0">
+      <c r="B331" s="0" t="n">
         <v>0.8314</v>
       </c>
-      <c r="C331" t="n" s="0">
+      <c r="C331" s="0" t="n">
         <v>1.0343</v>
       </c>
-      <c r="D331" t="n" s="0">
+      <c r="D331" s="0" t="n">
         <v>0.6591</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="n" s="0">
+      <c r="A332" s="7" t="n">
         <v>41970.083333333336</v>
       </c>
-      <c r="B332" t="n" s="0">
+      <c r="B332" s="0" t="n">
         <v>0.8315</v>
       </c>
-      <c r="C332" t="n" s="0">
+      <c r="C332" s="0" t="n">
         <v>1.0379</v>
       </c>
-      <c r="D332" t="n" s="0">
+      <c r="D332" s="0" t="n">
         <v>0.6594</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n" s="0">
+      <c r="A333" s="7" t="n">
         <v>41971.083333333336</v>
       </c>
-      <c r="B333" t="n" s="0">
+      <c r="B333" s="0" t="n">
         <v>0.8318</v>
       </c>
-      <c r="C333" t="n" s="0">
+      <c r="C333" s="0" t="n">
         <v>1.039</v>
       </c>
-      <c r="D333" t="n" s="0">
+      <c r="D333" s="0" t="n">
         <v>0.6589</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="n" s="0">
+      <c r="A334" s="7" t="n">
         <v>41972.083333333336</v>
       </c>
-      <c r="B334" t="n" s="0">
+      <c r="B334" s="0" t="n">
         <v>0.832</v>
       </c>
-      <c r="C334" t="n" s="0">
+      <c r="C334" s="0" t="n">
         <v>1.0362</v>
       </c>
-      <c r="D334" t="n" s="0">
+      <c r="D334" s="0" t="n">
         <v>0.6603</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="n" s="0">
+      <c r="A335" s="7" t="n">
         <v>41973.083333333336</v>
       </c>
-      <c r="B335" t="n" s="0">
+      <c r="B335" s="0" t="n">
         <v>0.8312</v>
       </c>
-      <c r="C335" t="n" s="0">
+      <c r="C335" s="0" t="n">
         <v>1.0349</v>
       </c>
-      <c r="D335" t="n" s="0">
+      <c r="D335" s="0" t="n">
         <v>0.6616</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="n" s="0">
+      <c r="A336" s="7" t="n">
         <v>41974.083333333336</v>
       </c>
-      <c r="B336" t="n" s="0">
+      <c r="B336" s="0" t="n">
         <v>0.8312</v>
       </c>
-      <c r="C336" t="n" s="0">
+      <c r="C336" s="0" t="n">
         <v>1.0349</v>
       </c>
-      <c r="D336" t="n" s="0">
+      <c r="D336" s="0" t="n">
         <v>0.6616</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="n" s="0">
+      <c r="A337" s="7" t="n">
         <v>41975.083333333336</v>
       </c>
-      <c r="B337" t="n" s="0">
+      <c r="B337" s="0" t="n">
         <v>0.8311</v>
       </c>
-      <c r="C337" t="n" s="0">
+      <c r="C337" s="0" t="n">
         <v>1.0357</v>
       </c>
-      <c r="D337" t="n" s="0">
+      <c r="D337" s="0" t="n">
         <v>0.6607</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="n" s="0">
+      <c r="A338" s="7" t="n">
         <v>41976.083333333336</v>
       </c>
-      <c r="B338" t="n" s="0">
+      <c r="B338" s="0" t="n">
         <v>0.8307</v>
       </c>
-      <c r="C338" t="n" s="0">
+      <c r="C338" s="0" t="n">
         <v>1.0332</v>
       </c>
-      <c r="D338" t="n" s="0">
+      <c r="D338" s="0" t="n">
         <v>0.6583</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n" s="0">
+      <c r="A339" s="7" t="n">
         <v>41977.083333333336</v>
       </c>
-      <c r="B339" t="n" s="0">
+      <c r="B339" s="0" t="n">
         <v>0.8308</v>
       </c>
-      <c r="C339" t="n" s="0">
+      <c r="C339" s="0" t="n">
         <v>1.026</v>
       </c>
-      <c r="D339" t="n" s="0">
+      <c r="D339" s="0" t="n">
         <v>0.6551</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="n" s="0">
+      <c r="A340" s="7" t="n">
         <v>41978.083333333336</v>
       </c>
-      <c r="B340" t="n" s="0">
+      <c r="B340" s="0" t="n">
         <v>0.831</v>
       </c>
-      <c r="C340" t="n" s="0">
+      <c r="C340" s="0" t="n">
         <v>1.0251</v>
       </c>
-      <c r="D340" t="n" s="0">
+      <c r="D340" s="0" t="n">
         <v>0.6537</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n" s="0">
+      <c r="A341" s="7" t="n">
         <v>41979.083333333336</v>
       </c>
-      <c r="B341" t="n" s="0">
+      <c r="B341" s="0" t="n">
         <v>0.8316</v>
       </c>
-      <c r="C341" t="n" s="0">
+      <c r="C341" s="0" t="n">
         <v>1.027</v>
       </c>
-      <c r="D341" t="n" s="0">
+      <c r="D341" s="0" t="n">
         <v>0.6565</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n" s="0">
+      <c r="A342" s="7" t="n">
         <v>41980.083333333336</v>
       </c>
-      <c r="B342" t="n" s="0">
+      <c r="B342" s="0" t="n">
         <v>0.8315</v>
       </c>
-      <c r="C342" t="n" s="0">
+      <c r="C342" s="0" t="n">
         <v>1.0213</v>
       </c>
-      <c r="D342" t="n" s="0">
+      <c r="D342" s="0" t="n">
         <v>0.6553</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n" s="0">
+      <c r="A343" s="7" t="n">
         <v>41981.083333333336</v>
       </c>
-      <c r="B343" t="n" s="0">
+      <c r="B343" s="0" t="n">
         <v>0.8315</v>
       </c>
-      <c r="C343" t="n" s="0">
+      <c r="C343" s="0" t="n">
         <v>1.0213</v>
       </c>
-      <c r="D343" t="n" s="0">
+      <c r="D343" s="0" t="n">
         <v>0.6553</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n" s="0">
+      <c r="A344" s="7" t="n">
         <v>41982.083333333336</v>
       </c>
-      <c r="B344" t="n" s="0">
+      <c r="B344" s="0" t="n">
         <v>0.8316</v>
       </c>
-      <c r="C344" t="n" s="0">
+      <c r="C344" s="0" t="n">
         <v>1.0217</v>
       </c>
-      <c r="D344" t="n" s="0">
+      <c r="D344" s="0" t="n">
         <v>0.6551</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n" s="0">
+      <c r="A345" s="7" t="n">
         <v>41983.083333333336</v>
       </c>
-      <c r="B345" t="n" s="0">
+      <c r="B345" s="0" t="n">
         <v>0.8318</v>
       </c>
-      <c r="C345" t="n" s="0">
+      <c r="C345" s="0" t="n">
         <v>1.0272</v>
       </c>
-      <c r="D345" t="n" s="0">
+      <c r="D345" s="0" t="n">
         <v>0.656</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="n" s="0">
+      <c r="A346" s="7" t="n">
         <v>41984.083333333336</v>
       </c>
-      <c r="B346" t="n" s="0">
+      <c r="B346" s="0" t="n">
         <v>0.8317</v>
       </c>
-      <c r="C346" t="n" s="0">
+      <c r="C346" s="0" t="n">
         <v>1.0308</v>
       </c>
-      <c r="D346" t="n" s="0">
+      <c r="D346" s="0" t="n">
         <v>0.6572</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="n" s="0">
+      <c r="A347" s="7" t="n">
         <v>41985.083333333336</v>
       </c>
-      <c r="B347" t="n" s="0">
+      <c r="B347" s="0" t="n">
         <v>0.8317</v>
       </c>
-      <c r="C347" t="n" s="0">
+      <c r="C347" s="0" t="n">
         <v>1.034</v>
       </c>
-      <c r="D347" t="n" s="0">
+      <c r="D347" s="0" t="n">
         <v>0.6584</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="n" s="0">
+      <c r="A348" s="7" t="n">
         <v>41986.083333333336</v>
       </c>
-      <c r="B348" t="n" s="0">
+      <c r="B348" s="0" t="n">
         <v>0.8325</v>
       </c>
-      <c r="C348" t="n" s="0">
+      <c r="C348" s="0" t="n">
         <v>1.0344</v>
       </c>
-      <c r="D348" t="n" s="0">
+      <c r="D348" s="0" t="n">
         <v>0.658</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="n" s="0">
+      <c r="A349" s="7" t="n">
         <v>41987.083333333336</v>
       </c>
-      <c r="B349" t="n" s="0">
+      <c r="B349" s="0" t="n">
         <v>0.8325</v>
       </c>
-      <c r="C349" t="n" s="0">
+      <c r="C349" s="0" t="n">
         <v>1.0369</v>
       </c>
-      <c r="D349" t="n" s="0">
+      <c r="D349" s="0" t="n">
         <v>0.6599</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="n" s="0">
+      <c r="A350" s="7" t="n">
         <v>41988.083333333336</v>
       </c>
-      <c r="B350" t="n" s="0">
+      <c r="B350" s="0" t="n">
         <v>0.8325</v>
       </c>
-      <c r="C350" t="n" s="0">
+      <c r="C350" s="0" t="n">
         <v>1.0369</v>
       </c>
-      <c r="D350" t="n" s="0">
+      <c r="D350" s="0" t="n">
         <v>0.6599</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="n" s="0">
+      <c r="A351" s="7" t="n">
         <v>41989.083333333336</v>
       </c>
-      <c r="B351" t="n" s="0">
+      <c r="B351" s="0" t="n">
         <v>0.8325</v>
       </c>
-      <c r="C351" t="n" s="0">
+      <c r="C351" s="0" t="n">
         <v>1.0359</v>
       </c>
-      <c r="D351" t="n" s="0">
+      <c r="D351" s="0" t="n">
         <v>0.6603</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="n" s="0">
+      <c r="A352" s="7" t="n">
         <v>41990.083333333336</v>
       </c>
-      <c r="B352" t="n" s="0">
+      <c r="B352" s="0" t="n">
         <v>0.8326</v>
       </c>
-      <c r="C352" t="n" s="0">
+      <c r="C352" s="0" t="n">
         <v>1.0391</v>
       </c>
-      <c r="D352" t="n" s="0">
+      <c r="D352" s="0" t="n">
         <v>0.6623</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="n" s="0">
+      <c r="A353" s="7" t="n">
         <v>41991.083333333336</v>
       </c>
-      <c r="B353" t="n" s="0">
+      <c r="B353" s="0" t="n">
         <v>0.8326</v>
       </c>
-      <c r="C353" t="n" s="0">
+      <c r="C353" s="0" t="n">
         <v>1.0377</v>
       </c>
-      <c r="D353" t="n" s="0">
+      <c r="D353" s="0" t="n">
         <v>0.6608</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="n" s="0">
+      <c r="A354" s="7" t="n">
         <v>41992.083333333336</v>
       </c>
-      <c r="B354" t="n" s="0">
+      <c r="B354" s="0" t="n">
         <v>0.8312</v>
       </c>
-      <c r="C354" t="n" s="0">
+      <c r="C354" s="0" t="n">
         <v>1.0235</v>
       </c>
-      <c r="D354" t="n" s="0">
+      <c r="D354" s="0" t="n">
         <v>0.6554</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="n" s="0">
+      <c r="A355" s="7" t="n">
         <v>41993.083333333336</v>
       </c>
-      <c r="B355" t="n" s="0">
+      <c r="B355" s="0" t="n">
         <v>0.8306</v>
       </c>
-      <c r="C355" t="n" s="0">
+      <c r="C355" s="0" t="n">
         <v>1.0192</v>
       </c>
-      <c r="D355" t="n" s="0">
+      <c r="D355" s="0" t="n">
         <v>0.6512</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="n" s="0">
+      <c r="A356" s="7" t="n">
         <v>41994.083333333336</v>
       </c>
-      <c r="B356" t="n" s="0">
+      <c r="B356" s="0" t="n">
         <v>0.8305</v>
       </c>
-      <c r="C356" t="n" s="0">
+      <c r="C356" s="0" t="n">
         <v>1.0155</v>
       </c>
-      <c r="D356" t="n" s="0">
+      <c r="D356" s="0" t="n">
         <v>0.6498</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="n" s="0">
+      <c r="A357" s="7" t="n">
         <v>41995.083333333336</v>
       </c>
-      <c r="B357" t="n" s="0">
+      <c r="B357" s="0" t="n">
         <v>0.8305</v>
       </c>
-      <c r="C357" t="n" s="0">
+      <c r="C357" s="0" t="n">
         <v>1.0155</v>
       </c>
-      <c r="D357" t="n" s="0">
+      <c r="D357" s="0" t="n">
         <v>0.6498</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="n" s="0">
+      <c r="A358" s="7" t="n">
         <v>41996.083333333336</v>
       </c>
-      <c r="B358" t="n" s="0">
+      <c r="B358" s="0" t="n">
         <v>0.8309</v>
       </c>
-      <c r="C358" t="n" s="0">
+      <c r="C358" s="0" t="n">
         <v>1.0176</v>
       </c>
-      <c r="D358" t="n" s="0">
+      <c r="D358" s="0" t="n">
         <v>0.6512</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="n" s="0">
+      <c r="A359" s="7" t="n">
         <v>41997.083333333336</v>
       </c>
-      <c r="B359" t="n" s="0">
+      <c r="B359" s="0" t="n">
         <v>0.8312</v>
       </c>
-      <c r="C359" t="n" s="0">
+      <c r="C359" s="0" t="n">
         <v>1.0151</v>
       </c>
-      <c r="D359" t="n" s="0">
+      <c r="D359" s="0" t="n">
         <v>0.6525</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="n" s="0">
+      <c r="A360" s="7" t="n">
         <v>41998.083333333336</v>
       </c>
-      <c r="B360" t="n" s="0">
+      <c r="B360" s="0" t="n">
         <v>0.8316</v>
       </c>
-      <c r="C360" t="n" s="0">
+      <c r="C360" s="0" t="n">
         <v>1.0134</v>
       </c>
-      <c r="D360" t="n" s="0">
+      <c r="D360" s="0" t="n">
         <v>0.6524</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="n" s="0">
+      <c r="A361" s="7" t="n">
         <v>41999.083333333336</v>
       </c>
-      <c r="B361" t="n" s="0">
+      <c r="B361" s="0" t="n">
         <v>0.8316</v>
       </c>
-      <c r="C361" t="n" s="0">
+      <c r="C361" s="0" t="n">
         <v>1.0141</v>
       </c>
-      <c r="D361" t="n" s="0">
+      <c r="D361" s="0" t="n">
         <v>0.6517</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="n" s="0">
+      <c r="A362" s="7" t="n">
         <v>42000.083333333336</v>
       </c>
-      <c r="B362" t="n" s="0">
+      <c r="B362" s="0" t="n">
         <v>0.8315</v>
       </c>
-      <c r="C362" t="n" s="0">
+      <c r="C362" s="0" t="n">
         <v>1.0141</v>
       </c>
-      <c r="D362" t="n" s="0">
+      <c r="D362" s="0" t="n">
         <v>0.6518</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="n" s="0">
+      <c r="A363" s="7" t="n">
         <v>42001.083333333336</v>
       </c>
-      <c r="B363" t="n" s="0">
+      <c r="B363" s="0" t="n">
         <v>0.831</v>
       </c>
-      <c r="C363" t="n" s="0">
+      <c r="C363" s="0" t="n">
         <v>1.0117</v>
       </c>
-      <c r="D363" t="n" s="0">
+      <c r="D363" s="0" t="n">
         <v>0.6503</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="n" s="0">
+      <c r="A364" s="7" t="n">
         <v>42002.083333333336</v>
       </c>
-      <c r="B364" t="n" s="0">
+      <c r="B364" s="0" t="n">
         <v>0.831</v>
       </c>
-      <c r="C364" t="n" s="0">
+      <c r="C364" s="0" t="n">
         <v>1.0117</v>
       </c>
-      <c r="D364" t="n" s="0">
+      <c r="D364" s="0" t="n">
         <v>0.6503</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="n" s="0">
+      <c r="A365" s="7" t="n">
         <v>42003.083333333336</v>
       </c>
-      <c r="B365" t="n" s="0">
+      <c r="B365" s="0" t="n">
         <v>0.8312</v>
       </c>
-      <c r="C365" t="n" s="0">
+      <c r="C365" s="0" t="n">
         <v>1.0127</v>
       </c>
-      <c r="D365" t="n" s="0">
+      <c r="D365" s="0" t="n">
         <v>0.6511</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="n" s="0">
+      <c r="A366" s="7" t="n">
         <v>42004.083333333336</v>
       </c>
-      <c r="B366" t="n" s="0">
+      <c r="B366" s="0" t="n">
         <v>0.8313</v>
       </c>
-      <c r="C366" t="n" s="0">
+      <c r="C366" s="0" t="n">
         <v>1.0105</v>
       </c>
-      <c r="D366" t="n" s="0">
+      <c r="D366" s="0" t="n">
         <v>0.6506</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="n" s="0">
+      <c r="A367" s="7" t="n">
         <v>42005.083333333336</v>
       </c>
-      <c r="B367" t="n" s="0">
+      <c r="B367" s="0" t="n">
         <v>0.8315</v>
       </c>
-      <c r="C367" t="n" s="0">
+      <c r="C367" s="0" t="n">
         <v>1.0097</v>
       </c>
-      <c r="D367" t="n" s="0">
+      <c r="D367" s="0" t="n">
         <v>0.6483</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="n" s="0">
+      <c r="A368" s="7" t="n">
         <v>42006.083333333336</v>
       </c>
-      <c r="B368" t="n" s="0">
+      <c r="B368" s="0" t="n">
         <v>0.8315</v>
       </c>
-      <c r="C368" t="n" s="0">
+      <c r="C368" s="0" t="n">
         <v>1.0062</v>
       </c>
-      <c r="D368" t="n" s="0">
+      <c r="D368" s="0" t="n">
         <v>0.6459</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="n" s="0">
+      <c r="A369" s="7" t="n">
         <v>42007.083333333336</v>
       </c>
-      <c r="B369" t="n" s="0">
+      <c r="B369" s="0" t="n">
         <v>0.8317</v>
       </c>
-      <c r="C369" t="n" s="0">
+      <c r="C369" s="0" t="n">
         <v>1.002</v>
       </c>
-      <c r="D369" t="n" s="0">
+      <c r="D369" s="0" t="n">
         <v>0.6473</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="n" s="0">
+      <c r="A370" s="7" t="n">
         <v>42008.083333333336</v>
       </c>
-      <c r="B370" t="n" s="0">
+      <c r="B370" s="0" t="n">
         <v>0.8316</v>
       </c>
-      <c r="C370" t="n" s="0">
+      <c r="C370" s="0" t="n">
         <v>0.9979</v>
       </c>
-      <c r="D370" t="n" s="0">
+      <c r="D370" s="0" t="n">
         <v>0.6511</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="n" s="0">
+      <c r="A371" s="7" t="n">
         <v>42009.083333333336</v>
       </c>
-      <c r="B371" t="n" s="0">
+      <c r="B371" s="0" t="n">
         <v>0.8316</v>
       </c>
-      <c r="C371" t="n" s="0">
+      <c r="C371" s="0" t="n">
         <v>0.9979</v>
       </c>
-      <c r="D371" t="n" s="0">
+      <c r="D371" s="0" t="n">
         <v>0.651</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="n" s="0">
+      <c r="A372" s="7" t="n">
         <v>42010.083333333336</v>
       </c>
-      <c r="B372" t="n" s="0">
+      <c r="B372" s="0" t="n">
         <v>0.8321</v>
       </c>
-      <c r="C372" t="n" s="0">
+      <c r="C372" s="0" t="n">
         <v>0.9935</v>
       </c>
-      <c r="D372" t="n" s="0">
+      <c r="D372" s="0" t="n">
         <v>0.6506</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="n" s="0">
+      <c r="A373" s="7" t="n">
         <v>42011.083333333336</v>
       </c>
-      <c r="B373" t="n" s="0">
+      <c r="B373" s="0" t="n">
         <v>0.8323</v>
       </c>
-      <c r="C373" t="n" s="0">
+      <c r="C373" s="0" t="n">
         <v>0.9928</v>
       </c>
-      <c r="D373" t="n" s="0">
+      <c r="D373" s="0" t="n">
         <v>0.6523</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="n" s="0">
+      <c r="A374" s="7" t="n">
         <v>42012.083333333336</v>
       </c>
-      <c r="B374" t="n" s="0">
+      <c r="B374" s="0" t="n">
         <v>0.8326</v>
       </c>
-      <c r="C374" t="n" s="0">
+      <c r="C374" s="0" t="n">
         <v>0.987</v>
       </c>
-      <c r="D374" t="n" s="0">
+      <c r="D374" s="0" t="n">
         <v>0.6527</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="n" s="0">
+      <c r="A375" s="7" t="n">
         <v>42013.083333333336</v>
       </c>
-      <c r="B375" t="n" s="0">
+      <c r="B375" s="0" t="n">
         <v>0.8325</v>
       </c>
-      <c r="C375" t="n" s="0">
+      <c r="C375" s="0" t="n">
         <v>0.983</v>
       </c>
-      <c r="D375" t="n" s="0">
+      <c r="D375" s="0" t="n">
         <v>0.6516</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="n" s="0">
+      <c r="A376" s="7" t="n">
         <v>42014.083333333336</v>
       </c>
-      <c r="B376" t="n" s="0">
+      <c r="B376" s="0" t="n">
         <v>0.8326</v>
       </c>
-      <c r="C376" t="n" s="0">
+      <c r="C376" s="0" t="n">
         <v>0.9833</v>
       </c>
-      <c r="D376" t="n" s="0">
+      <c r="D376" s="0" t="n">
         <v>0.6503</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="n" s="0">
+      <c r="A377" s="7" t="n">
         <v>42015.083333333336</v>
       </c>
-      <c r="B377" t="n" s="0">
+      <c r="B377" s="0" t="n">
         <v>0.8326</v>
       </c>
-      <c r="C377" t="n" s="0">
+      <c r="C377" s="0" t="n">
         <v>0.9857</v>
       </c>
-      <c r="D377" t="n" s="0">
+      <c r="D377" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="n" s="0">
+      <c r="A378" s="7" t="n">
         <v>42016.083333333336</v>
       </c>
-      <c r="B378" t="n" s="0">
+      <c r="B378" s="0" t="n">
         <v>0.8326</v>
       </c>
-      <c r="C378" t="n" s="0">
+      <c r="C378" s="0" t="n">
         <v>0.9857</v>
       </c>
-      <c r="D378" t="n" s="0">
+      <c r="D378" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="n" s="0">
+      <c r="A379" s="7" t="n">
         <v>42017.083333333336</v>
       </c>
-      <c r="B379" t="n" s="0">
+      <c r="B379" s="0" t="n">
         <v>0.8326</v>
       </c>
-      <c r="C379" t="n" s="0">
+      <c r="C379" s="0" t="n">
         <v>0.9855</v>
       </c>
-      <c r="D379" t="n" s="0">
+      <c r="D379" s="0" t="n">
         <v>0.6501</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="n" s="0">
+      <c r="A380" s="7" t="n">
         <v>42018.083333333336</v>
       </c>
-      <c r="B380" t="n" s="0">
+      <c r="B380" s="0" t="n">
         <v>0.8326</v>
       </c>
-      <c r="C380" t="n" s="0">
+      <c r="C380" s="0" t="n">
         <v>0.9833</v>
       </c>
-      <c r="D380" t="n" s="0">
+      <c r="D380" s="0" t="n">
         <v>0.6487</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="n" s="0">
+      <c r="A381" s="7" t="n">
         <v>42019.083333333336</v>
       </c>
-      <c r="B381" t="n" s="0">
+      <c r="B381" s="0" t="n">
         <v>0.8326</v>
       </c>
-      <c r="C381" t="n" s="0">
+      <c r="C381" s="0" t="n">
         <v>0.9809</v>
       </c>
-      <c r="D381" t="n" s="0">
+      <c r="D381" s="0" t="n">
         <v>0.6458</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="n" s="0">
+      <c r="A382" s="7" t="n">
         <v>42020.083333333336</v>
       </c>
-      <c r="B382" t="n" s="0">
+      <c r="B382" s="8" t="n">
         <v>0.8869</v>
       </c>
-      <c r="C382" t="n" s="0">
+      <c r="C382" s="8" t="n">
         <v>1.0402</v>
       </c>
-      <c r="D382" t="n" s="0">
+      <c r="D382" s="8" t="n">
         <v>0.6833</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="n" s="0">
+      <c r="A383" s="7" t="n">
         <v>42021.083333333336</v>
       </c>
-      <c r="B383" t="n" s="0">
+      <c r="B383" s="8" t="n">
         <v>0.9966</v>
       </c>
-      <c r="C383" t="n" s="0">
+      <c r="C383" s="8" t="n">
         <v>1.156</v>
       </c>
-      <c r="D383" t="n" s="0">
+      <c r="D383" s="8" t="n">
         <v>0.7618</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="n" s="0">
+      <c r="A384" s="7" t="n">
         <v>42022.083333333336</v>
       </c>
-      <c r="B384" t="n" s="0">
+      <c r="B384" s="0" t="n">
         <v>1.0041</v>
       </c>
-      <c r="C384" t="n" s="0">
+      <c r="C384" s="0" t="n">
         <v>1.1639</v>
       </c>
-      <c r="D384" t="n" s="0">
+      <c r="D384" s="0" t="n">
         <v>0.7695</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="n" s="0">
+      <c r="A385" s="7" t="n">
         <v>42023.083333333336</v>
       </c>
-      <c r="B385" t="n" s="0">
+      <c r="B385" s="0" t="n">
         <v>1.0041</v>
       </c>
-      <c r="C385" t="n" s="0">
+      <c r="C385" s="0" t="n">
         <v>1.1641</v>
       </c>
-      <c r="D385" t="n" s="0">
+      <c r="D385" s="0" t="n">
         <v>0.7697</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="n" s="0">
+      <c r="A386" s="7" t="n">
         <v>42024.083333333336</v>
       </c>
-      <c r="B386" t="n" s="0">
+      <c r="B386" s="0" t="n">
         <v>0.9932</v>
       </c>
-      <c r="C386" t="n" s="0">
+      <c r="C386" s="0" t="n">
         <v>1.1509</v>
       </c>
-      <c r="D386" t="n" s="0">
+      <c r="D386" s="0" t="n">
         <v>0.7602</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n" s="0">
+      <c r="A387" s="7" t="n">
         <v>42025.083333333336</v>
       </c>
-      <c r="B387" t="n" s="0">
+      <c r="B387" s="0" t="n">
         <v>0.9841</v>
       </c>
-      <c r="C387" t="n" s="0">
+      <c r="C387" s="0" t="n">
         <v>1.1397</v>
       </c>
-      <c r="D387" t="n" s="0">
+      <c r="D387" s="0" t="n">
         <v>0.7536</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n" s="0">
+      <c r="A388" s="7" t="n">
         <v>42026.083333333336</v>
       </c>
-      <c r="B388" t="n" s="0">
+      <c r="B388" s="0" t="n">
         <v>0.9949</v>
       </c>
-      <c r="C388" t="n" s="0">
+      <c r="C388" s="0" t="n">
         <v>1.1516</v>
       </c>
-      <c r="D388" t="n" s="0">
+      <c r="D388" s="0" t="n">
         <v>0.7609</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="n" s="0">
+      <c r="A389" s="7" t="n">
         <v>42027.083333333336</v>
       </c>
-      <c r="B389" t="n" s="0">
+      <c r="B389" s="0" t="n">
         <v>1.0034</v>
       </c>
-      <c r="C389" t="n" s="0">
+      <c r="C389" s="0" t="n">
         <v>1.1588</v>
       </c>
-      <c r="D389" t="n" s="0">
+      <c r="D389" s="0" t="n">
         <v>0.7663</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="n" s="0">
+      <c r="A390" s="7" t="n">
         <v>42028.083333333336</v>
       </c>
-      <c r="B390" t="n" s="0">
+      <c r="B390" s="0" t="n">
         <v>1.0132</v>
       </c>
-      <c r="C390" t="n" s="0">
+      <c r="C390" s="0" t="n">
         <v>1.1442</v>
       </c>
-      <c r="D390" t="n" s="0">
+      <c r="D390" s="0" t="n">
         <v>0.7628</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="n" s="0">
+      <c r="A391" s="7" t="n">
         <v>42029.083333333336</v>
       </c>
-      <c r="B391" t="n" s="0">
+      <c r="B391" s="0" t="n">
         <v>1.0115</v>
       </c>
-      <c r="C391" t="n" s="0">
+      <c r="C391" s="0" t="n">
         <v>1.133</v>
       </c>
-      <c r="D391" t="n" s="0">
+      <c r="D391" s="0" t="n">
         <v>0.7564</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="n" s="0">
+      <c r="A392" s="7" t="n">
         <v>42030.083333333336</v>
       </c>
-      <c r="B392" t="n" s="0">
+      <c r="B392" s="0" t="n">
         <v>1.0115</v>
       </c>
-      <c r="C392" t="n" s="0">
+      <c r="C392" s="0" t="n">
         <v>1.133</v>
       </c>
-      <c r="D392" t="n" s="0">
+      <c r="D392" s="0" t="n">
         <v>0.7564</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="n" s="0">
+      <c r="A393" s="7" t="n">
         <v>42031.083333333336</v>
       </c>
-      <c r="B393" t="n" s="0">
+      <c r="B393" s="0" t="n">
         <v>1.0039</v>
       </c>
-      <c r="C393" t="n" s="0">
+      <c r="C393" s="0" t="n">
         <v>1.1264</v>
       </c>
-      <c r="D393" t="n" s="0">
+      <c r="D393" s="0" t="n">
         <v>0.7496</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="n" s="0">
+      <c r="A394" s="7" t="n">
         <v>42032.083333333336</v>
       </c>
-      <c r="B394" t="n" s="0">
+      <c r="B394" s="8" t="n">
         <v>0.981</v>
       </c>
-      <c r="C394" t="n" s="0">
+      <c r="C394" s="0" t="n">
         <v>1.1079</v>
       </c>
-      <c r="D394" t="n" s="0">
+      <c r="D394" s="8" t="n">
         <v>0.7325</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="n" s="0">
+      <c r="A395" s="7" t="n">
         <v>42033.083333333336</v>
       </c>
-      <c r="B395" t="n" s="0">
+      <c r="B395" s="0" t="n">
         <v>0.9748</v>
       </c>
-      <c r="C395" t="n" s="0">
+      <c r="C395" s="0" t="n">
         <v>1.1063</v>
       </c>
-      <c r="D395" t="n" s="0">
+      <c r="D395" s="0" t="n">
         <v>0.7288</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="n" s="0">
+      <c r="A396" s="7" t="n">
         <v>42034.083333333336</v>
       </c>
-      <c r="B396" t="n" s="0">
+      <c r="B396" s="0" t="n">
         <v>0.9674</v>
       </c>
-      <c r="C396" t="n" s="0">
+      <c r="C396" s="0" t="n">
         <v>1.093</v>
       </c>
-      <c r="D396" t="n" s="0">
+      <c r="D396" s="0" t="n">
         <v>0.723</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="n" s="0">
+      <c r="A397" s="7" t="n">
         <v>42035.083333333336</v>
       </c>
-      <c r="B397" t="n" s="0">
+      <c r="B397" s="0" t="n">
         <v>0.957</v>
       </c>
-      <c r="C397" t="n" s="0">
+      <c r="C397" s="0" t="n">
         <v>1.0834</v>
       </c>
-      <c r="D397" t="n" s="0">
+      <c r="D397" s="0" t="n">
         <v>0.7193</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="n" s="0">
+      <c r="A398" s="7" t="n">
         <v>42036.083333333336</v>
       </c>
-      <c r="B398" t="n" s="0">
+      <c r="B398" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="C398" t="n" s="0">
+      <c r="C398" s="0" t="n">
         <v>1.0837</v>
       </c>
-      <c r="D398" t="n" s="0">
+      <c r="D398" s="0" t="n">
         <v>0.7195</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="n" s="0">
+      <c r="A399" s="7" t="n">
         <v>42037.083333333336</v>
       </c>
-      <c r="B399" t="n" s="0">
+      <c r="B399" s="0" t="n">
         <v>0.9598</v>
       </c>
-      <c r="C399" t="n" s="0">
+      <c r="C399" s="0" t="n">
         <v>1.0836</v>
       </c>
-      <c r="D399" t="n" s="0">
+      <c r="D399" s="0" t="n">
         <v>0.7194</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="n" s="0">
+      <c r="A400" s="7" t="n">
         <v>42038.083333333336</v>
       </c>
-      <c r="B400" t="n" s="0">
+      <c r="B400" s="0" t="n">
         <v>0.9524</v>
       </c>
-      <c r="C400" t="n" s="0">
+      <c r="C400" s="0" t="n">
         <v>1.0783</v>
       </c>
-      <c r="D400" t="n" s="0">
+      <c r="D400" s="0" t="n">
         <v>0.7163</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="n" s="0">
+      <c r="A401" s="7" t="n">
         <v>42039.083333333336</v>
       </c>
-      <c r="B401" t="n" s="0">
+      <c r="B401" s="0" t="n">
         <v>0.9488</v>
       </c>
-      <c r="C401" t="n" s="0">
+      <c r="C401" s="0" t="n">
         <v>1.0796</v>
       </c>
-      <c r="D401" t="n" s="0">
+      <c r="D401" s="0" t="n">
         <v>0.7166</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="n" s="0">
+      <c r="A402" s="7" t="n">
         <v>42040.083333333336</v>
       </c>
-      <c r="B402" t="n" s="0">
+      <c r="B402" s="0" t="n">
         <v>0.9441</v>
       </c>
-      <c r="C402" t="n" s="0">
+      <c r="C402" s="0" t="n">
         <v>1.0809</v>
       </c>
-      <c r="D402" t="n" s="0">
+      <c r="D402" s="0" t="n">
         <v>0.7118</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="n" s="0">
+      <c r="A403" s="7" t="n">
         <v>42041.083333333336</v>
       </c>
-      <c r="B403" t="n" s="0">
+      <c r="B403" s="0" t="n">
         <v>0.9489</v>
       </c>
-      <c r="C403" t="n" s="0">
+      <c r="C403" s="0" t="n">
         <v>1.0809</v>
       </c>
-      <c r="D403" t="n" s="0">
+      <c r="D403" s="0" t="n">
         <v>0.7093</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="n" s="0">
+      <c r="A404" s="7" t="n">
         <v>42042.083333333336</v>
       </c>
-      <c r="B404" t="n" s="0">
+      <c r="B404" s="0" t="n">
         <v>0.9477</v>
       </c>
-      <c r="C404" t="n" s="0">
+      <c r="C404" s="0" t="n">
         <v>1.0825</v>
       </c>
-      <c r="D404" t="n" s="0">
+      <c r="D404" s="0" t="n">
         <v>0.7074</v>
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="n" s="0">
+      <c r="A405" s="7" t="n">
         <v>42043.083333333336</v>
       </c>
-      <c r="B405" t="n" s="0">
+      <c r="B405" s="0" t="n">
         <v>0.9528</v>
       </c>
-      <c r="C405" t="n" s="0">
+      <c r="C405" s="0" t="n">
         <v>1.0776</v>
       </c>
-      <c r="D405" t="n" s="0">
+      <c r="D405" s="0" t="n">
         <v>0.7067</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="n" s="0">
+      <c r="A406" s="7" t="n">
         <v>42044.083333333336</v>
       </c>
-      <c r="B406" t="n" s="0">
+      <c r="B406" s="0" t="n">
         <v>0.9527</v>
       </c>
-      <c r="C406" t="n" s="0">
+      <c r="C406" s="0" t="n">
         <v>1.0775</v>
       </c>
-      <c r="D406" t="n" s="0">
+      <c r="D406" s="0" t="n">
         <v>0.7067</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="n" s="0">
+      <c r="A407" s="7" t="n">
         <v>42045.083333333336</v>
       </c>
-      <c r="B407" t="n" s="0">
+      <c r="B407" s="0" t="n">
         <v>0.9545</v>
       </c>
-      <c r="C407" t="n" s="0">
+      <c r="C407" s="0" t="n">
         <v>1.081</v>
       </c>
-      <c r="D407" t="n" s="0">
+      <c r="D407" s="0" t="n">
         <v>0.7095</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="n" s="0">
+      <c r="A408" s="7" t="n">
         <v>42046.083333333336</v>
       </c>
-      <c r="B408" t="n" s="0">
+      <c r="B408" s="0" t="n">
         <v>0.955</v>
       </c>
-      <c r="C408" t="n" s="0">
+      <c r="C408" s="0" t="n">
         <v>1.081</v>
       </c>
-      <c r="D408" t="n" s="0">
+      <c r="D408" s="0" t="n">
         <v>0.7095</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="n" s="0">
+      <c r="A409" s="7" t="n">
         <v>42047.083333333336</v>
       </c>
-      <c r="B409" t="n" s="0">
+      <c r="B409" s="0" t="n">
         <v>0.9534</v>
       </c>
-      <c r="C409" t="n" s="0">
+      <c r="C409" s="0" t="n">
         <v>1.0785</v>
       </c>
-      <c r="D409" t="n" s="0">
+      <c r="D409" s="0" t="n">
         <v>0.7068</v>
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="n" s="0">
+      <c r="A410" s="7" t="n">
         <v>42048.083333333336</v>
       </c>
-      <c r="B410" t="n" s="0">
+      <c r="B410" s="0" t="n">
         <v>0.9482</v>
       </c>
-      <c r="C410" t="n" s="0">
+      <c r="C410" s="0" t="n">
         <v>1.0756</v>
       </c>
-      <c r="D410" t="n" s="0">
+      <c r="D410" s="0" t="n">
         <v>0.7033</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="n" s="0">
+      <c r="A411" s="7" t="n">
         <v>42049.083333333336</v>
       </c>
-      <c r="B411" t="n" s="0">
+      <c r="B411" s="0" t="n">
         <v>0.9424</v>
       </c>
-      <c r="C411" t="n" s="0">
+      <c r="C411" s="0" t="n">
         <v>1.0753</v>
       </c>
-      <c r="D411" t="n" s="0">
+      <c r="D411" s="0" t="n">
         <v>0.6984</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="n" s="0">
+      <c r="A412" s="7" t="n">
         <v>42050.083333333336</v>
       </c>
-      <c r="B412" t="n" s="0">
+      <c r="B412" s="0" t="n">
         <v>0.9411</v>
       </c>
-      <c r="C412" t="n" s="0">
+      <c r="C412" s="0" t="n">
         <v>1.0711</v>
       </c>
-      <c r="D412" t="n" s="0">
+      <c r="D412" s="0" t="n">
         <v>0.6955</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="n" s="0">
+      <c r="A413" s="7" t="n">
         <v>42051.083333333336</v>
       </c>
-      <c r="B413" t="n" s="0">
+      <c r="B413" s="0" t="n">
         <v>0.9411</v>
       </c>
-      <c r="C413" t="n" s="0">
+      <c r="C413" s="0" t="n">
         <v>1.0711</v>
       </c>
-      <c r="D413" t="n" s="0">
+      <c r="D413" s="0" t="n">
         <v>0.6955</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="n" s="0">
+      <c r="A414" s="7" t="n">
         <v>42052.083333333336</v>
       </c>
-      <c r="B414" t="n" s="0">
+      <c r="B414" s="0" t="n">
         <v>0.9423</v>
       </c>
-      <c r="C414" t="n" s="0">
+      <c r="C414" s="0" t="n">
         <v>1.074</v>
       </c>
-      <c r="D414" t="n" s="0">
+      <c r="D414" s="0" t="n">
         <v>0.6975</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="n" s="0">
+      <c r="A415" s="7" t="n">
         <v>42053.083333333336</v>
       </c>
-      <c r="B415" t="n" s="0">
+      <c r="B415" s="0" t="n">
         <v>0.9418</v>
       </c>
-      <c r="C415" t="n" s="0">
+      <c r="C415" s="0" t="n">
         <v>1.0715</v>
       </c>
-      <c r="D415" t="n" s="0">
+      <c r="D415" s="0" t="n">
         <v>0.6974</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="n" s="0">
+      <c r="A416" s="7" t="n">
         <v>42054.083333333336</v>
       </c>
-      <c r="B416" t="n" s="0">
+      <c r="B416" s="0" t="n">
         <v>0.9349</v>
       </c>
-      <c r="C416" t="n" s="0">
+      <c r="C416" s="0" t="n">
         <v>1.0647</v>
       </c>
-      <c r="D416" t="n" s="0">
+      <c r="D416" s="0" t="n">
         <v>0.6917</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="n" s="0">
+      <c r="A417" s="7" t="n">
         <v>42055.083333333336</v>
       </c>
-      <c r="B417" t="n" s="0">
+      <c r="B417" s="0" t="n">
         <v>0.9288</v>
       </c>
-      <c r="C417" t="n" s="0">
+      <c r="C417" s="0" t="n">
         <v>1.0585</v>
       </c>
-      <c r="D417" t="n" s="0">
+      <c r="D417" s="0" t="n">
         <v>0.6856</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="n" s="0">
+      <c r="A418" s="7" t="n">
         <v>42056.083333333336</v>
       </c>
-      <c r="B418" t="n" s="0">
+      <c r="B418" s="0" t="n">
         <v>0.929</v>
       </c>
-      <c r="C418" t="n" s="0">
+      <c r="C418" s="0" t="n">
         <v>1.0548</v>
       </c>
-      <c r="D418" t="n" s="0">
+      <c r="D418" s="0" t="n">
         <v>0.6849</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="n" s="0">
+      <c r="A419" s="7" t="n">
         <v>42057.083333333336</v>
       </c>
-      <c r="B419" t="n" s="0">
+      <c r="B419" s="0" t="n">
         <v>0.9353</v>
       </c>
-      <c r="C419" t="n" s="0">
+      <c r="C419" s="0" t="n">
         <v>1.0641</v>
       </c>
-      <c r="D419" t="n" s="0">
+      <c r="D419" s="0" t="n">
         <v>0.691</v>
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="n" s="0">
+      <c r="A420" s="7" t="n">
         <v>42058.083333333336</v>
       </c>
-      <c r="B420" t="n" s="0">
+      <c r="B420" s="0" t="n">
         <v>0.9353</v>
       </c>
-      <c r="C420" t="n" s="0">
+      <c r="C420" s="0" t="n">
         <v>1.0641</v>
       </c>
-      <c r="D420" t="n" s="0">
+      <c r="D420" s="0" t="n">
         <v>0.691</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="n" s="0">
+      <c r="A421" s="7" t="n">
         <v>42059.083333333336</v>
       </c>
-      <c r="B421" t="n" s="0">
+      <c r="B421" s="0" t="n">
         <v>0.9309</v>
       </c>
-      <c r="C421" t="n" s="0">
+      <c r="C421" s="0" t="n">
         <v>1.0567</v>
       </c>
-      <c r="D421" t="n" s="0">
+      <c r="D421" s="0" t="n">
         <v>0.6862</v>
       </c>
     </row>
